--- a/sriramModel-nelson-atypical-patientID_22-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_22-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.095664841045127</v>
+        <v>2.024453751425229</v>
       </c>
       <c r="C2">
-        <v>2.036062760978015</v>
+        <v>2.159227713671952</v>
       </c>
       <c r="D2">
-        <v>2.000440182507786</v>
+        <v>2.000021858779713</v>
       </c>
       <c r="E2">
-        <v>2.273151252028779</v>
+        <v>2.00010733237384</v>
       </c>
       <c r="F2">
-        <v>2.020604530556312</v>
+        <v>2.024814875815143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.190460698105324</v>
+        <v>2.048916259711628</v>
       </c>
       <c r="C3">
-        <v>2.07190952326068</v>
+        <v>2.315500394240196</v>
       </c>
       <c r="D3">
-        <v>2.000912075092831</v>
+        <v>2.000046098284165</v>
       </c>
       <c r="E3">
-        <v>2.543583831008764</v>
+        <v>2.000220949870262</v>
       </c>
       <c r="F3">
-        <v>2.041148040874409</v>
+        <v>2.049475228193122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.284442839886652</v>
+        <v>2.073382443166029</v>
       </c>
       <c r="C4">
-        <v>2.107544715372168</v>
+        <v>2.468957439033579</v>
       </c>
       <c r="D4">
-        <v>2.001415754785894</v>
+        <v>2.00007285889013</v>
       </c>
       <c r="E4">
-        <v>2.811367434357705</v>
+        <v>2.000341076387264</v>
       </c>
       <c r="F4">
-        <v>2.061631670762336</v>
+        <v>2.073974113027503</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.377683490781585</v>
+        <v>2.097847634826239</v>
       </c>
       <c r="C5">
-        <v>2.142972982543921</v>
+        <v>2.61971488708968</v>
       </c>
       <c r="D5">
-        <v>2.001951338187301</v>
+        <v>2.000102294699759</v>
       </c>
       <c r="E5">
-        <v>3.076560159094333</v>
+        <v>2.000467952295585</v>
       </c>
       <c r="F5">
-        <v>2.082056967447484</v>
+        <v>2.098305814430642</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.470277075953542</v>
+        <v>2.122307603523625</v>
       </c>
       <c r="C6">
-        <v>2.178199177294999</v>
+        <v>2.767850897468463</v>
       </c>
       <c r="D6">
-        <v>2.002518989627327</v>
+        <v>2.000134570605955</v>
       </c>
       <c r="E6">
-        <v>3.339209801887113</v>
+        <v>2.000601837598529</v>
       </c>
       <c r="F6">
-        <v>2.102425915457198</v>
+        <v>2.122465878914803</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.562346597134268</v>
+        <v>2.146758552906872</v>
       </c>
       <c r="C7">
-        <v>2.213228342183087</v>
+        <v>2.913405760910922</v>
       </c>
       <c r="D7">
-        <v>2.003118927597122</v>
+        <v>2.000169864936733</v>
       </c>
       <c r="E7">
-        <v>3.599355165688106</v>
+        <v>2.00074301145974</v>
       </c>
       <c r="F7">
-        <v>2.122740961061708</v>
+        <v>2.146451032452577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.654049817107456</v>
+        <v>2.171197049347656</v>
       </c>
       <c r="C8">
-        <v>2.248065691846068</v>
+        <v>3.056394246806211</v>
       </c>
       <c r="D8">
-        <v>2.003751424838456</v>
+        <v>2.000208371373266</v>
       </c>
       <c r="E8">
-        <v>3.857027305693694</v>
+        <v>2.000891773102004</v>
       </c>
       <c r="F8">
-        <v>2.143005043167715</v>
+        <v>2.17025907621371</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.745585251801746</v>
+        <v>2.19562002639912</v>
       </c>
       <c r="C9">
-        <v>2.282716606288423</v>
+        <v>3.196820778273402</v>
       </c>
       <c r="D9">
-        <v>2.004416809811709</v>
+        <v>2.000250298237429</v>
       </c>
       <c r="E9">
-        <v>4.112250711202553</v>
+        <v>2.001048443537661</v>
       </c>
       <c r="F9">
-        <v>2.163221628687432</v>
+        <v>2.193888859765264</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.83719748920787</v>
+        <v>2.220024775236888</v>
       </c>
       <c r="C10">
-        <v>2.317186623722954</v>
+        <v>3.334690323941381</v>
       </c>
       <c r="D10">
-        <v>2.005115466323321</v>
+        <v>2.000295869542968</v>
       </c>
       <c r="E10">
-        <v>4.36504439112288</v>
+        <v>2.001213366815795</v>
       </c>
       <c r="F10">
-        <v>2.183394751032278</v>
+        <v>2.217340244642962</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.929179637487267</v>
+        <v>2.244408942617522</v>
       </c>
       <c r="C11">
-        <v>2.351481434318951</v>
+        <v>3.470013631032232</v>
       </c>
       <c r="D11">
-        <v>2.005847836454246</v>
+        <v>2.000345326742623</v>
       </c>
       <c r="E11">
-        <v>4.615422844248568</v>
+        <v>2.001386909807037</v>
       </c>
       <c r="F11">
-        <v>2.203529052373109</v>
+        <v>2.240614055773402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.02186964847859</v>
+        <v>2.268770492856284</v>
       </c>
       <c r="C12">
-        <v>2.385606877861656</v>
+        <v>3.6028084823063</v>
       </c>
       <c r="D12">
-        <v>2.006614396179379</v>
+        <v>2.000398930483466</v>
       </c>
       <c r="E12">
-        <v>4.863396925096941</v>
+        <v>2.001569463221015</v>
       </c>
       <c r="F12">
-        <v>2.223629826403465</v>
+        <v>2.263712053974743</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.115639551582965</v>
+        <v>2.293107705108817</v>
       </c>
       <c r="C13">
-        <v>2.419568942525201</v>
+        <v>3.733099004397232</v>
       </c>
       <c r="D13">
-        <v>2.007415699074552</v>
+        <v>2.000456961691921</v>
       </c>
       <c r="E13">
-        <v>5.10897459716158</v>
+        <v>2.001761443320363</v>
       </c>
       <c r="F13">
-        <v>2.243703071338027</v>
+        <v>2.286636871498253</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.210873458578591</v>
+        <v>2.317419163585557</v>
       </c>
       <c r="C14">
-        <v>2.453373765232875</v>
+        <v>3.860914324605629</v>
       </c>
       <c r="D14">
-        <v>2.008252361556505</v>
+        <v>2.000519722487058</v>
       </c>
       <c r="E14">
-        <v>5.352161584562315</v>
+        <v>2.001963292318641</v>
       </c>
       <c r="F14">
-        <v>2.263755548761131</v>
+        <v>2.309391985588</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.307933210646535</v>
+        <v>2.341703745084121</v>
       </c>
       <c r="C15">
-        <v>2.487027632893633</v>
+        <v>3.986287218158139</v>
       </c>
       <c r="D15">
-        <v>2.009125058447259</v>
+        <v>2.000587537255937</v>
       </c>
       <c r="E15">
-        <v>5.592961928259835</v>
+        <v>2.002175480000362</v>
       </c>
       <c r="F15">
-        <v>2.28379484368856</v>
+        <v>2.331981687489992</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.407113994393611</v>
+        <v>2.365960618432127</v>
       </c>
       <c r="C16">
-        <v>2.520536984730715</v>
+        <v>4.109252979412752</v>
       </c>
       <c r="D16">
-        <v>2.010034523968819</v>
+        <v>2.000660754444058</v>
       </c>
       <c r="E16">
-        <v>5.831378457229965</v>
+        <v>2.002398505075504</v>
       </c>
       <c r="F16">
-        <v>2.303829431552372</v>
+        <v>2.354411050803666</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.508597280302609</v>
+        <v>2.3901892312898</v>
       </c>
       <c r="C17">
-        <v>2.553908415892236</v>
+        <v>4.229848555764279</v>
       </c>
       <c r="D17">
-        <v>2.010981557904692</v>
+        <v>2.000739748924015</v>
       </c>
       <c r="E17">
-        <v>6.06741318283012</v>
+        <v>2.002632896175607</v>
       </c>
       <c r="F17">
-        <v>2.323868756836634</v>
+        <v>2.376685907193893</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.612413920345035</v>
+        <v>2.414389300625668</v>
       </c>
       <c r="C18">
-        <v>2.587148682304302</v>
+        <v>4.348111911837235</v>
       </c>
       <c r="D18">
-        <v>2.011967023407789</v>
+        <v>2.000824923089725</v>
       </c>
       <c r="E18">
-        <v>6.301067626484509</v>
+        <v>2.002879213458145</v>
       </c>
       <c r="F18">
-        <v>2.343923314554654</v>
+        <v>2.398812819016254</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718431216681522</v>
+        <v>2.438560809327885</v>
       </c>
       <c r="C19">
-        <v>2.62026470541348</v>
+        <v>4.464081572749142</v>
       </c>
       <c r="D19">
-        <v>2.012991855069645</v>
+        <v>2.000916709428819</v>
       </c>
       <c r="E19">
-        <v>6.532343094498692</v>
+        <v>2.003138050583423</v>
       </c>
       <c r="F19">
-        <v>2.364004752059027</v>
+        <v>2.420799053487433</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.826370664856718</v>
+        <v>2.462703995097349</v>
       </c>
       <c r="C20">
-        <v>2.653263577141391</v>
+        <v>4.577796299778606</v>
       </c>
       <c r="D20">
-        <v>2.014057059707476</v>
+        <v>2.001015569900265</v>
       </c>
       <c r="E20">
-        <v>6.761240894058997</v>
+        <v>2.003410036136468</v>
       </c>
       <c r="F20">
-        <v>2.384125938555169</v>
+        <v>2.442652565329085</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.935851411076103</v>
+        <v>2.486819347083108</v>
       </c>
       <c r="C21">
-        <v>2.686152565055409</v>
+        <v>4.689294861085879</v>
       </c>
       <c r="D21">
-        <v>2.015163716325022</v>
+        <v>2.001122004519879</v>
       </c>
       <c r="E21">
-        <v>6.987762508100136</v>
+        <v>2.003695834766696</v>
       </c>
       <c r="F21">
-        <v>2.404301125665218</v>
+        <v>2.464381979859333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.046444857836004</v>
+        <v>2.510907603465169</v>
       </c>
       <c r="C22">
-        <v>2.718939118271976</v>
+        <v>4.798615869871731</v>
       </c>
       <c r="D22">
-        <v>2.016312985508954</v>
+        <v>2.001236543168952</v>
       </c>
       <c r="E22">
-        <v>7.21190974045426</v>
+        <v>2.003996149928859</v>
       </c>
       <c r="F22">
-        <v>2.424546061692046</v>
+        <v>2.485996578117859</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.157724427362414</v>
+        <v>2.534969738913824</v>
       </c>
       <c r="C23">
-        <v>2.751630872905356</v>
+        <v>4.905797669930377</v>
       </c>
       <c r="D23">
-        <v>2.017506107921238</v>
+        <v>2.001359761389116</v>
       </c>
       <c r="E23">
-        <v>7.433684826322537</v>
+        <v>2.004311726526445</v>
       </c>
       <c r="F23">
-        <v>2.444878132679495</v>
+        <v>2.507506289421241</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.269300452974536</v>
+        <v>2.559006974324421</v>
       </c>
       <c r="C24">
-        <v>2.78423565750068</v>
+        <v>5.010878254224054</v>
       </c>
       <c r="D24">
-        <v>2.018744410316748</v>
+        <v>2.001492271567636</v>
       </c>
       <c r="E24">
-        <v>7.653090515647074</v>
+        <v>2.004643348647678</v>
       </c>
       <c r="F24">
-        <v>2.465316519000285</v>
+        <v>2.528921678603989</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.380838441226694</v>
+        <v>2.583020758899302</v>
       </c>
       <c r="C25">
-        <v>2.816761498055646</v>
+        <v>5.113895208541355</v>
       </c>
       <c r="D25">
-        <v>2.020029320772147</v>
+        <v>2.00163473309209</v>
       </c>
       <c r="E25">
-        <v>7.870130137520184</v>
+        <v>2.004991849509271</v>
       </c>
       <c r="F25">
-        <v>2.485882375133321</v>
+        <v>2.550253943646149</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.492063926457921</v>
+        <v>2.607012782943024</v>
       </c>
       <c r="C26">
-        <v>2.849216622441299</v>
+        <v>5.21488567088848</v>
       </c>
       <c r="D26">
-        <v>2.021362341344582</v>
+        <v>2.0017878550767</v>
       </c>
       <c r="E26">
-        <v>8.084807645843577</v>
+        <v>2.005358102156857</v>
       </c>
       <c r="F26">
-        <v>2.506599033060045</v>
+        <v>2.571514914606699</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.602758916607026</v>
+        <v>2.630984963697681</v>
       </c>
       <c r="C27">
-        <v>2.881609464247641</v>
+        <v>5.313886303175772</v>
       </c>
       <c r="D27">
-        <v>2.022745074661315</v>
+        <v>2.001952392276523</v>
       </c>
       <c r="E27">
-        <v>8.297127650274877</v>
+        <v>2.005743036999497</v>
       </c>
       <c r="F27">
-        <v>2.527492226062693</v>
+        <v>2.59271705593757</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.712754296331314</v>
+        <v>2.654939454170413</v>
       </c>
       <c r="C28">
-        <v>2.91394866586365</v>
+        <v>5.41093327204821</v>
       </c>
       <c r="D28">
-        <v>2.024179245226136</v>
+        <v>2.00212916252531</v>
       </c>
       <c r="E28">
-        <v>8.507095435709086</v>
+        <v>2.006147629153425</v>
       </c>
       <c r="F28">
-        <v>2.548590339772676</v>
+        <v>2.61387347237726</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.821921165100341</v>
+        <v>2.678878635275729</v>
       </c>
       <c r="C29">
-        <v>2.946243080619976</v>
+        <v>5.506062235748136</v>
       </c>
       <c r="D29">
-        <v>2.025666670897725</v>
+        <v>2.002319034241337</v>
       </c>
       <c r="E29">
-        <v>8.71471697128425</v>
+        <v>2.006572915385461</v>
       </c>
       <c r="F29">
-        <v>2.569924685958364</v>
+        <v>2.634997917024321</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.930162587818125</v>
+        <v>2.70280512164508</v>
       </c>
       <c r="C30">
-        <v>2.978501773792731</v>
+        <v>5.599308335228086</v>
       </c>
       <c r="D30">
-        <v>2.027209307370897</v>
+        <v>2.002522946091346</v>
       </c>
       <c r="E30">
-        <v>8.919998911764807</v>
+        <v>2.007019986401215</v>
       </c>
       <c r="F30">
-        <v>2.591529807493427</v>
+        <v>2.656104806257513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.037406475820339</v>
+        <v>2.726721757834369</v>
       </c>
       <c r="C31">
-        <v>3.010734022371765</v>
+        <v>5.690706189625566</v>
       </c>
       <c r="D31">
-        <v>2.02880923059402</v>
+        <v>2.002741901811014</v>
       </c>
       <c r="E31">
-        <v>9.122948592791619</v>
+        <v>2.007489997068007</v>
       </c>
       <c r="F31">
-        <v>2.613443813975012</v>
+        <v>2.677209237159117</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.143599885652575</v>
+        <v>2.750631623549986</v>
       </c>
       <c r="C32">
-        <v>3.042949313383603</v>
+        <v>5.780289894244452</v>
       </c>
       <c r="D32">
-        <v>2.030468655323415</v>
+        <v>2.002976975980326</v>
       </c>
       <c r="E32">
-        <v>9.32357402057902</v>
+        <v>2.00798416544439</v>
       </c>
       <c r="F32">
-        <v>2.63570874597684</v>
+        <v>2.698327009250398</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.248704554340417</v>
+        <v>2.774538032741138</v>
       </c>
       <c r="C33">
-        <v>3.075157340338513</v>
+        <v>5.868093019793546</v>
       </c>
       <c r="D33">
-        <v>2.032189942254441</v>
+        <v>2.003229330687833</v>
       </c>
       <c r="E33">
-        <v>9.521883857823997</v>
+        <v>2.008503779232189</v>
       </c>
       <c r="F33">
-        <v>2.658370964728567</v>
+        <v>2.719474652741264</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.352693408298795</v>
+        <v>2.79844453835569</v>
       </c>
       <c r="C34">
-        <v>3.107367998033436</v>
+        <v>5.95414861325944</v>
       </c>
       <c r="D34">
-        <v>2.033975604917298</v>
+        <v>2.003500198523283</v>
       </c>
       <c r="E34">
-        <v>9.71788740655092</v>
+        <v>2.009050196593725</v>
       </c>
       <c r="F34">
-        <v>2.681481560928456</v>
+        <v>2.740669452904564</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.455547851069741</v>
+        <v>2.822354934807408</v>
       </c>
       <c r="C35">
-        <v>3.139591375231849</v>
+        <v>6.038489200116276</v>
       </c>
       <c r="D35">
-        <v>2.035828323029055</v>
+        <v>2.003790917086811</v>
       </c>
       <c r="E35">
-        <v>9.911594588452481</v>
+        <v>2.009624854341232</v>
       </c>
       <c r="F35">
-        <v>2.705096771248829</v>
+        <v>2.76192949126207</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.557255780352325</v>
+        <v>2.846273261573117</v>
       </c>
       <c r="C36">
-        <v>3.171837745060094</v>
+        <v>6.121146787468093</v>
       </c>
       <c r="D36">
-        <v>2.037750957060703</v>
+        <v>2.004102910681482</v>
       </c>
       <c r="E36">
-        <v>10.10301592403561</v>
+        <v>2.010229266998676</v>
       </c>
       <c r="F36">
-        <v>2.729278382870276</v>
+        <v>2.783273686175709</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.65781007135789</v>
+        <v>2.870203809201506</v>
       </c>
       <c r="C37">
-        <v>3.204117552866719</v>
+        <v>6.202152867611962</v>
       </c>
       <c r="D37">
-        <v>2.039746557288147</v>
+        <v>2.004437713542458</v>
       </c>
       <c r="E37">
-        <v>10.2921625098988</v>
+        <v>2.010865038423848</v>
       </c>
       <c r="F37">
-        <v>2.754094100965182</v>
+        <v>2.804721837807738</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.757207430385518</v>
+        <v>2.894151121965145</v>
       </c>
       <c r="C38">
-        <v>3.236441401354475</v>
+        <v>6.281538422116602</v>
       </c>
       <c r="D38">
-        <v>2.041818390733885</v>
+        <v>2.004796977619645</v>
       </c>
       <c r="E38">
-        <v>10.47904599508461</v>
+        <v>2.011533859954855</v>
       </c>
       <c r="F38">
-        <v>2.779617829425992</v>
+        <v>2.8262946803694</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.855447518101042</v>
+        <v>2.918120006846713</v>
       </c>
       <c r="C39">
-        <v>3.268820033059591</v>
+        <v>6.35933392640414</v>
       </c>
       <c r="D39">
-        <v>2.043969944053272</v>
+        <v>2.005182462438796</v>
       </c>
       <c r="E39">
-        <v>10.66367855689394</v>
+        <v>2.012237522167964</v>
       </c>
       <c r="F39">
-        <v>2.805929806730541</v>
+        <v>2.848013939151204</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.952532295488848</v>
+        <v>2.94211553593307</v>
       </c>
       <c r="C40">
-        <v>3.301264308904036</v>
+        <v>6.435569354439767</v>
       </c>
       <c r="D40">
-        <v>2.046204956264957</v>
+        <v>2.005596078888977</v>
       </c>
       <c r="E40">
-        <v>10.84607287689179</v>
+        <v>2.012977915729287</v>
       </c>
       <c r="F40">
-        <v>2.833116518410125</v>
+        <v>2.869902382408703</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.048465515741607</v>
+        <v>2.966143058023867</v>
       </c>
       <c r="C41">
-        <v>3.333785183925392</v>
+        <v>6.510274184318288</v>
       </c>
       <c r="D41">
-        <v>2.048527428474825</v>
+        <v>2.006039857592348</v>
       </c>
       <c r="E41">
-        <v>11.0262421169147</v>
+        <v>2.013757041232662</v>
       </c>
       <c r="F41">
-        <v>2.861270265125742</v>
+        <v>2.891983904671296</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.14325234739528</v>
+        <v>2.990208200630111</v>
       </c>
       <c r="C42">
-        <v>3.366393679185455</v>
+        <v>6.583477403407097</v>
       </c>
       <c r="D42">
-        <v>2.050941657977986</v>
+        <v>2.006515999325027</v>
       </c>
       <c r="E42">
-        <v>11.20419989493579</v>
+        <v>2.014577013157614</v>
       </c>
       <c r="F42">
-        <v>2.89048828361267</v>
+        <v>2.91428359367821</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.236899074838449</v>
+        <v>3.01431688412635</v>
       </c>
       <c r="C43">
-        <v>3.399100849832445</v>
+        <v>6.655207513713128</v>
       </c>
       <c r="D43">
-        <v>2.053452254342972</v>
+        <v>2.00702686142445</v>
       </c>
       <c r="E43">
-        <v>11.37996026121164</v>
+        <v>2.015440068910548</v>
       </c>
       <c r="F43">
-        <v>2.920871237653243</v>
+        <v>2.936827808866956</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.329412868782482</v>
+        <v>3.038475324010141</v>
       </c>
       <c r="C44">
-        <v>3.431917749136598</v>
+        <v>6.725492537641166</v>
       </c>
       <c r="D44">
-        <v>2.056064179806736</v>
+        <v>2.007574973354303</v>
       </c>
       <c r="E44">
-        <v>11.55353767477462</v>
+        <v>2.016348575382629</v>
       </c>
       <c r="F44">
-        <v>2.952520680228558</v>
+        <v>2.959644269875457</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.420801617245916</v>
+        <v>3.062690047716424</v>
       </c>
       <c r="C45">
-        <v>3.464855384163685</v>
+        <v>6.794360023058612</v>
       </c>
       <c r="D45">
-        <v>2.05878277098567</v>
+        <v>2.008163079773656</v>
       </c>
       <c r="E45">
-        <v>11.7249469804592</v>
+        <v>2.017305037369158</v>
       </c>
       <c r="F45">
-        <v>2.985535915646137</v>
+        <v>2.982762127892468</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.511073770267058</v>
+        <v>3.086967896127946</v>
       </c>
       <c r="C46">
-        <v>3.497924682845577</v>
+        <v>6.861837050177416</v>
       </c>
       <c r="D46">
-        <v>2.06161378879799</v>
+        <v>2.00879409641069</v>
       </c>
       <c r="E46">
-        <v>11.89420338648161</v>
+        <v>2.018312107664374</v>
       </c>
       <c r="F46">
-        <v>3.020009713852562</v>
+        <v>3.006212069684407</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.600238228805743</v>
+        <v>3.111316042861209</v>
       </c>
       <c r="C47">
-        <v>3.531136427205006</v>
+        <v>6.92795023545409</v>
       </c>
       <c r="D47">
-        <v>2.064563447035984</v>
+        <v>2.009471201366468</v>
       </c>
       <c r="E47">
-        <v>12.06132244258774</v>
+        <v>2.019372593876937</v>
       </c>
       <c r="F47">
-        <v>3.056023013496453</v>
+        <v>3.030026412813626</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6.68830426655814</v>
+        <v>3.135741996086643</v>
       </c>
       <c r="C48">
-        <v>3.564501229496371</v>
+        <v>6.992725739849089</v>
       </c>
       <c r="D48">
-        <v>2.067638473783609</v>
+        <v>2.010197786675507</v>
       </c>
       <c r="E48">
-        <v>12.22632001879762</v>
+        <v>2.020489473161333</v>
       </c>
       <c r="F48">
-        <v>3.093638955766915</v>
+        <v>3.054239198417289</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.775281437393123</v>
+        <v>3.160253619166958</v>
       </c>
       <c r="C49">
-        <v>3.598029441143913</v>
+        <v>7.056189272174223</v>
       </c>
       <c r="D49">
-        <v>2.070846150486154</v>
+        <v>2.010977521375863</v>
       </c>
       <c r="E49">
-        <v>12.3892122846759</v>
+        <v>2.021665897065889</v>
       </c>
       <c r="F49">
-        <v>3.132896821806352</v>
+        <v>3.078886322368131</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6.861179557301718</v>
+        <v>3.18485913314586</v>
       </c>
       <c r="C50">
-        <v>3.631731119635086</v>
+        <v>7.118366097325707</v>
       </c>
       <c r="D50">
-        <v>2.074194386591339</v>
+        <v>2.011814372466022</v>
       </c>
       <c r="E50">
-        <v>12.55001568938084</v>
+        <v>2.022905211321455</v>
       </c>
       <c r="F50">
-        <v>3.173806625052315</v>
+        <v>3.104005436464605</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.946008644885635</v>
+        <v>3.209567137985993</v>
       </c>
       <c r="C51">
-        <v>3.665615945969469</v>
+        <v>7.17928104039578</v>
       </c>
       <c r="D51">
-        <v>2.07769174360037</v>
+        <v>2.012712578797066</v>
       </c>
       <c r="E51">
-        <v>12.70874694227134</v>
+        <v>2.024210959104638</v>
       </c>
       <c r="F51">
-        <v>3.216345335497289</v>
+        <v>3.129636251651485</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.029778871915858</v>
+        <v>3.234386616198366</v>
       </c>
       <c r="C52">
-        <v>3.699693168536972</v>
+        <v>7.238958493648562</v>
       </c>
       <c r="D52">
-        <v>2.081347608168677</v>
+        <v>2.013676771931493</v>
       </c>
       <c r="E52">
-        <v>12.86542299407751</v>
+        <v>2.025586906944322</v>
       </c>
       <c r="F52">
-        <v>3.260455355263942</v>
+        <v>3.155820484532638</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.112500542956698</v>
+        <v>3.259326953497545</v>
       </c>
       <c r="C53">
-        <v>3.733971525901367</v>
+        <v>7.29742242189639</v>
       </c>
       <c r="D53">
-        <v>2.085172227526154</v>
+        <v>2.014711888640564</v>
       </c>
       <c r="E53">
-        <v>13.02006103145466</v>
+        <v>2.027037044754068</v>
       </c>
       <c r="F53">
-        <v>3.306046200168395</v>
+        <v>3.182601966807949</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7.194184099216619</v>
+        <v>3.284397944237975</v>
       </c>
       <c r="C54">
-        <v>3.768459173889169</v>
+        <v>7.354696368311004</v>
       </c>
       <c r="D54">
-        <v>2.089176801413433</v>
+        <v>2.015823314746371</v>
       </c>
       <c r="E54">
-        <v>13.17267847855188</v>
+        <v>2.028565617710514</v>
       </c>
       <c r="F54">
-        <v>3.352999972317276</v>
+        <v>3.210026589602497</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7.274840129698543</v>
+        <v>3.309609809862411</v>
       </c>
       <c r="C55">
-        <v>3.803163745125105</v>
+        <v>7.41080346051042</v>
       </c>
       <c r="D55">
-        <v>2.093373754692504</v>
+        <v>2.017016846874898</v>
       </c>
       <c r="E55">
-        <v>13.32329306565664</v>
+        <v>2.030177125909804</v>
       </c>
       <c r="F55">
-        <v>3.401177392041248</v>
+        <v>3.238142259596803</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7.354479341090056</v>
+        <v>3.334973206898827</v>
       </c>
       <c r="C56">
-        <v>3.838092166614556</v>
+        <v>7.465766415851575</v>
       </c>
       <c r="D56">
-        <v>2.097776794597344</v>
+        <v>2.018298739002841</v>
       </c>
       <c r="E56">
-        <v>13.47192277314319</v>
+        <v>2.031876365135139</v>
       </c>
       <c r="F56">
-        <v>3.450426592582946</v>
+        <v>3.266998817085225</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7.433112529635463</v>
+        <v>3.360499240208518</v>
       </c>
       <c r="C57">
-        <v>3.873250658960536</v>
+        <v>7.519607548002389</v>
       </c>
       <c r="D57">
-        <v>2.102401069723037</v>
+        <v>2.019675831116682</v>
       </c>
       <c r="E57">
-        <v>13.61858580838111</v>
+        <v>2.033668420904276</v>
       </c>
       <c r="F57">
-        <v>3.500591147736674</v>
+        <v>3.296647901259055</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.510750557789621</v>
+        <v>3.386199475604165</v>
       </c>
       <c r="C58">
-        <v>3.908644606026511</v>
+        <v>7.572348772458419</v>
       </c>
       <c r="D58">
-        <v>2.107263356238795</v>
+        <v>2.02115539812847</v>
       </c>
       <c r="E58">
-        <v>13.76330057722691</v>
+        <v>2.035558720802078</v>
       </c>
       <c r="F58">
-        <v>3.551517452228747</v>
+        <v>3.327142708658845</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.587404334889736</v>
+        <v>3.412085943945572</v>
       </c>
       <c r="C59">
-        <v>3.94427848304866</v>
+        <v>7.624011611160948</v>
       </c>
       <c r="D59">
-        <v>2.112382315729787</v>
+        <v>2.022745432244999</v>
       </c>
       <c r="E59">
-        <v>13.90608565783907</v>
+        <v>2.037553024535463</v>
       </c>
       <c r="F59">
-        <v>3.603060437795967</v>
+        <v>3.358537651000694</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.663084794240577</v>
+        <v>3.438171160211603</v>
       </c>
       <c r="C60">
-        <v>3.980155811454984</v>
+        <v>7.674617200301501</v>
       </c>
       <c r="D60">
-        <v>2.117778696414918</v>
+        <v>2.024454593850267</v>
       </c>
       <c r="E60">
-        <v>14.04695977806574</v>
+        <v>2.039657486814748</v>
       </c>
       <c r="F60">
-        <v>3.65508735488537</v>
+        <v>3.390887881595931</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.73780287613703</v>
+        <v>3.464468113606035</v>
       </c>
       <c r="C61">
-        <v>4.016279090066849</v>
+        <v>7.724186295328475</v>
       </c>
       <c r="D61">
-        <v>2.123475598454208</v>
+        <v>2.026292288808077</v>
       </c>
       <c r="E61">
-        <v>14.18594180093264</v>
+        <v>2.041878644497622</v>
       </c>
       <c r="F61">
-        <v>3.707479880599454</v>
+        <v>3.424248763300802</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7.811569515124652</v>
+        <v>3.490990295522525</v>
       </c>
       <c r="C62">
-        <v>4.052649746920529</v>
+        <v>7.772739274683899</v>
       </c>
       <c r="D62">
-        <v>2.129498824181919</v>
+        <v>2.02826872506059</v>
       </c>
       <c r="E62">
-        <v>14.32305068880279</v>
+        <v>2.044223491654915</v>
       </c>
       <c r="F62">
-        <v>3.76013479030301</v>
+        <v>3.458675053503184</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.884395628914857</v>
+        <v>3.517751669077774</v>
       </c>
       <c r="C63">
-        <v>4.089268090786493</v>
+        <v>7.82029614681918</v>
       </c>
       <c r="D63">
-        <v>2.135877260392518</v>
+        <v>2.030395002243968</v>
       </c>
       <c r="E63">
-        <v>14.45830548839902</v>
+        <v>2.04669946275131</v>
       </c>
       <c r="F63">
-        <v>3.812963580251864</v>
+        <v>3.494220009478846</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.956292105051048</v>
+        <v>3.544766709198958</v>
       </c>
       <c r="C64">
-        <v>4.126133274342787</v>
+        <v>7.866876558035544</v>
       </c>
       <c r="D64">
-        <v>2.142643346223818</v>
+        <v>2.032683206488222</v>
       </c>
       <c r="E64">
-        <v>14.59172531972751</v>
+        <v>2.049314522852582</v>
       </c>
       <c r="F64">
-        <v>3.865891417936543</v>
+        <v>3.530934306858286</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8.027269790293238</v>
+        <v>3.572050343215439</v>
       </c>
       <c r="C65">
-        <v>4.163243274025994</v>
+        <v>7.912499794543776</v>
       </c>
       <c r="D65">
-        <v>2.149833589346934</v>
+        <v>2.035146511285153</v>
       </c>
       <c r="E65">
-        <v>14.72332935649984</v>
+        <v>2.052077147233623</v>
       </c>
       <c r="F65">
-        <v>3.918855724461854</v>
+        <v>3.568864882419719</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.097339482099544</v>
+        <v>3.599618006827505</v>
       </c>
       <c r="C66">
-        <v>4.200594882026073</v>
+        <v>7.957184786482197</v>
       </c>
       <c r="D66">
-        <v>2.157489229564023</v>
+        <v>2.037799288638297</v>
       </c>
       <c r="E66">
-        <v>14.85313680833742</v>
+        <v>2.054996421762353</v>
       </c>
       <c r="F66">
-        <v>3.971804619381343</v>
+        <v>3.608053479165507</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>8.166511921377856</v>
+        <v>3.627485545858937</v>
       </c>
       <c r="C67">
-        <v>4.238183709711861</v>
+        <v>8.000950120344328</v>
       </c>
       <c r="D67">
-        <v>2.165656947378683</v>
+        <v>2.040657233308455</v>
       </c>
       <c r="E67">
-        <v>14.98116690675939</v>
+        <v>2.058082033590348</v>
       </c>
       <c r="F67">
-        <v>4.024695367738193</v>
+        <v>3.648535192181112</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.234797785627073</v>
+        <v>3.655669291243773</v>
       </c>
       <c r="C68">
-        <v>4.276004203684203</v>
+        <v>8.043814039203902</v>
       </c>
       <c r="D68">
-        <v>2.174389788703061</v>
+        <v>2.043737507764276</v>
       </c>
       <c r="E68">
-        <v>15.10743889279317</v>
+        <v>2.06134436725696</v>
       </c>
       <c r="F68">
-        <v>4.077492930896234</v>
+        <v>3.690336993991316</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>8.302207682005502</v>
+        <v>3.684185914705286</v>
       </c>
       <c r="C69">
-        <v>4.314049679200368</v>
+        <v>8.085794444050588</v>
       </c>
       <c r="D69">
-        <v>2.183748142229184</v>
+        <v>2.047058880464141</v>
       </c>
       <c r="E69">
-        <v>15.23197200419932</v>
+        <v>2.064794517406785</v>
       </c>
       <c r="F69">
-        <v>4.130168663186605</v>
+        <v>3.73347629420182</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>8.368752145562416</v>
+        <v>3.713052517048379</v>
       </c>
       <c r="C70">
-        <v>4.352312351353003</v>
+        <v>8.126908909507094</v>
       </c>
       <c r="D70">
-        <v>2.193801004507772</v>
+        <v>2.050641910993599</v>
       </c>
       <c r="E70">
-        <v>15.35478546321465</v>
+        <v>2.068444376116028</v>
       </c>
       <c r="F70">
-        <v>4.182699177586503</v>
+        <v>3.777959550467305</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>8.434441632316247</v>
+        <v>3.742286442849287</v>
       </c>
       <c r="C71">
-        <v>4.390783386731356</v>
+        <v>8.167174682400745</v>
       </c>
       <c r="D71">
-        <v>2.204627322225377</v>
+        <v>2.054509146443599</v>
       </c>
       <c r="E71">
-        <v>15.4758984656805</v>
+        <v>2.072306672325109</v>
       </c>
       <c r="F71">
-        <v>4.235065373853157</v>
+        <v>3.823781220339364</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>8.499286513700161</v>
+        <v>3.771905362043149</v>
       </c>
       <c r="C72">
-        <v>4.429452981619456</v>
+        <v>8.206608685089638</v>
       </c>
       <c r="D72">
-        <v>2.216317642912376</v>
+        <v>2.058685332380757</v>
       </c>
       <c r="E72">
-        <v>15.59533017143992</v>
+        <v>2.076395047518418</v>
       </c>
       <c r="F72">
-        <v>4.287251622479491</v>
+        <v>3.870922989199864</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.563297076955557</v>
+        <v>3.801927099340133</v>
       </c>
       <c r="C73">
-        <v>4.468310429188978</v>
+        <v>8.245227525556146</v>
       </c>
       <c r="D73">
-        <v>2.228975879212968</v>
+        <v>2.063197651063459</v>
       </c>
       <c r="E73">
-        <v>15.71309969254134</v>
+        <v>2.0807241256154</v>
       </c>
       <c r="F73">
-        <v>4.33924508881146</v>
+        <v>3.919353603888352</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>8.62648351616474</v>
+        <v>3.83236957060416</v>
       </c>
       <c r="C74">
-        <v>4.50734419915452</v>
+        <v>8.283047501863136</v>
       </c>
       <c r="D74">
-        <v>2.242721279875014</v>
+        <v>2.068075984685731</v>
       </c>
       <c r="E74">
-        <v>15.82922608780468</v>
+        <v>2.08530957447521</v>
       </c>
       <c r="F74">
-        <v>4.391035178800172</v>
+        <v>3.969028984238013</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>8.688855934597488</v>
+        <v>3.863250684029597</v>
       </c>
       <c r="C75">
-        <v>4.54654204298079</v>
+        <v>8.320084603438973</v>
       </c>
       <c r="D75">
-        <v>2.257690446605452</v>
+        <v>2.073353212980494</v>
       </c>
       <c r="E75">
-        <v>15.94372834973543</v>
+        <v>2.090168207962478</v>
       </c>
       <c r="F75">
-        <v>4.442613090542166</v>
+        <v>4.019892844774616</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>8.750424339423532</v>
+        <v>3.894588239580729</v>
       </c>
       <c r="C76">
-        <v>4.58589107269685</v>
+        <v>8.356354516915081</v>
       </c>
       <c r="D76">
-        <v>2.274039183219679</v>
+        <v>2.079065424540718</v>
       </c>
       <c r="E76">
-        <v>16.05662540206348</v>
+        <v>2.095318032056307</v>
       </c>
       <c r="F76">
-        <v>4.493971451537113</v>
+        <v>4.071877866088589</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8.811198643545051</v>
+        <v>3.926399816154363</v>
       </c>
       <c r="C77">
-        <v>4.625377859458369</v>
+        <v>8.391872636711149</v>
       </c>
       <c r="D77">
-        <v>2.291943914601387</v>
+        <v>2.085252485399306</v>
       </c>
       <c r="E77">
-        <v>16.1679360888245</v>
+        <v>2.10077837596109</v>
       </c>
       <c r="F77">
-        <v>4.545104030563857</v>
+        <v>4.124907298292086</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.871188661252743</v>
+        <v>3.958702616630148</v>
       </c>
       <c r="C78">
-        <v>4.664988532813698</v>
+        <v>8.426654064107485</v>
       </c>
       <c r="D78">
-        <v>2.311601963124645</v>
+        <v>2.091958271274497</v>
       </c>
       <c r="E78">
-        <v>16.27767916964893</v>
+        <v>2.106569925052761</v>
       </c>
       <c r="F78">
-        <v>4.596005509563923</v>
+        <v>4.17889684418286</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8.930404108621216</v>
+        <v>3.991513311462335</v>
       </c>
       <c r="C79">
-        <v>4.704708881703345</v>
+        <v>8.460713609384531</v>
       </c>
       <c r="D79">
-        <v>2.333229980635373</v>
+        <v>2.099231006810723</v>
       </c>
       <c r="E79">
-        <v>16.38587331399684</v>
+        <v>2.112714868386274</v>
       </c>
       <c r="F79">
-        <v>4.646671300919415</v>
+        <v>4.233756700325609</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8.988854601264045</v>
+        <v>4.024847895194899</v>
       </c>
       <c r="C80">
-        <v>4.744524449343064</v>
+        <v>8.494065806708836</v>
       </c>
       <c r="D80">
-        <v>2.357059111769704</v>
+        <v>2.107123624551801</v>
       </c>
       <c r="E80">
-        <v>16.49253709265476</v>
+        <v>2.119236927476409</v>
       </c>
       <c r="F80">
-        <v>4.697097409251064</v>
+        <v>4.289393648952993</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9.046549654400613</v>
+        <v>4.058721471340672</v>
       </c>
       <c r="C81">
-        <v>4.784420629493401</v>
+        <v>8.526724911990202</v>
       </c>
       <c r="D81">
-        <v>2.383325138405067</v>
+        <v>2.115694267901789</v>
       </c>
       <c r="E81">
-        <v>16.59768897592139</v>
+        <v>2.126161490890618</v>
       </c>
       <c r="F81">
-        <v>4.747280321403185</v>
+        <v>4.345713086997191</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.103498682132232</v>
+        <v>4.093148087150673</v>
       </c>
       <c r="C82">
-        <v>4.824382754739876</v>
+        <v>8.558704902787808</v>
       </c>
       <c r="D82">
-        <v>2.412253013349136</v>
+        <v>2.125006634484259</v>
       </c>
       <c r="E82">
-        <v>16.70134732444513</v>
+        <v>2.133515659630455</v>
       </c>
       <c r="F82">
-        <v>4.797216920218019</v>
+        <v>4.402620876504794</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.159710993127296</v>
+        <v>4.128140547281308</v>
       </c>
       <c r="C83">
-        <v>4.864396177833314</v>
+        <v>8.590019494693179</v>
       </c>
       <c r="D83">
-        <v>2.444034236777614</v>
+        <v>2.135130162883059</v>
       </c>
       <c r="E83">
-        <v>16.8035303886216</v>
+        <v>2.141328312259648</v>
       </c>
       <c r="F83">
-        <v>4.846904419001071</v>
+        <v>4.460024941684305</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.215195792764803</v>
+        <v>4.16371020745285</v>
       </c>
       <c r="C84">
-        <v>4.904446351569494</v>
+        <v>8.620682139064225</v>
       </c>
       <c r="D84">
-        <v>2.478799053293645</v>
+        <v>2.14614018022279</v>
       </c>
       <c r="E84">
-        <v>16.90425629945731</v>
+        <v>2.149630218166322</v>
       </c>
       <c r="F84">
-        <v>4.896340310220534</v>
+        <v>4.517836575299624</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>9.269962189858788</v>
+        <v>4.199866793439161</v>
       </c>
       <c r="C85">
-        <v>4.944518903280355</v>
+        <v>8.650706024881467</v>
       </c>
       <c r="D85">
-        <v>2.516587979329553</v>
+        <v>2.158117896074294</v>
       </c>
       <c r="E85">
-        <v>17.00354307030202</v>
+        <v>2.158453961120593</v>
       </c>
       <c r="F85">
-        <v>4.945522326074552</v>
+        <v>4.575971440610414</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9.324019305156458</v>
+        <v>4.236618217301203</v>
       </c>
       <c r="C86">
-        <v>4.98459958214689</v>
+        <v>8.680104087538231</v>
       </c>
       <c r="D86">
-        <v>2.55732980288424</v>
+        <v>2.171150103239722</v>
       </c>
       <c r="E86">
-        <v>17.10140839542085</v>
+        <v>2.167834004901648</v>
       </c>
       <c r="F86">
-        <v>4.994448406043452</v>
+        <v>4.63435028208889</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.377376007067006</v>
+        <v>4.273970401738268</v>
       </c>
       <c r="C87">
-        <v>5.024674640179609</v>
+        <v>8.708889014928953</v>
       </c>
       <c r="D87">
-        <v>2.600835740558241</v>
+        <v>2.185328474190012</v>
       </c>
       <c r="E87">
-        <v>17.19787058418983</v>
+        <v>2.177806611478751</v>
       </c>
       <c r="F87">
-        <v>5.043116679093129</v>
+        <v>4.692899370303037</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>9.430040790750875</v>
+        <v>4.311927142976819</v>
       </c>
       <c r="C88">
-        <v>5.064730651634804</v>
+        <v>8.737073246720717</v>
       </c>
       <c r="D88">
-        <v>2.646814119796722</v>
+        <v>2.20074832956419</v>
       </c>
       <c r="E88">
-        <v>17.29294666068225</v>
+        <v>2.188409718169614</v>
       </c>
       <c r="F88">
-        <v>5.091525432122745</v>
+        <v>4.751550717555101</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.482022436444463</v>
+        <v>4.350489969669384</v>
       </c>
       <c r="C89">
-        <v>5.104754454778959</v>
+        <v>8.764668978195191</v>
       </c>
       <c r="D89">
-        <v>2.694900322736085</v>
+        <v>2.21750676564226</v>
       </c>
       <c r="E89">
-        <v>17.38665425225779</v>
+        <v>2.199682824718542</v>
       </c>
       <c r="F89">
-        <v>5.139673104219116</v>
+        <v>4.81024210596428</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>9.53332955067224</v>
+        <v>4.389658044397612</v>
       </c>
       <c r="C90">
-        <v>5.14473311384856</v>
+        <v>8.791688172310138</v>
       </c>
       <c r="D90">
-        <v>2.744697590855933</v>
+        <v>2.235699998727135</v>
       </c>
       <c r="E90">
-        <v>17.47901065081621</v>
+        <v>2.211666711432188</v>
       </c>
       <c r="F90">
-        <v>5.187558272720737</v>
+        <v>4.868916969942719</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>9.583970585808977</v>
+        <v>4.429428122151815</v>
       </c>
       <c r="C91">
-        <v>5.184654300129301</v>
+        <v>8.818142557280856</v>
       </c>
       <c r="D91">
-        <v>2.795814618539438</v>
+        <v>2.255419821633701</v>
       </c>
       <c r="E91">
-        <v>17.57003301477395</v>
+        <v>2.224403055685659</v>
       </c>
       <c r="F91">
-        <v>5.235179649578329</v>
+        <v>4.927524171898958</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>9.633953868556043</v>
+        <v>4.469794528666616</v>
       </c>
       <c r="C92">
-        <v>5.22450622246227</v>
+        <v>8.844043626739241</v>
       </c>
       <c r="D92">
-        <v>2.847893279567685</v>
+        <v>2.27674921542633</v>
       </c>
       <c r="E92">
-        <v>17.65973834547385</v>
+        <v>2.237933904940653</v>
       </c>
       <c r="F92">
-        <v>5.282536069069248</v>
+        <v>4.986017703320107</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.683287624640219</v>
+        <v>4.510749167842562</v>
       </c>
       <c r="C93">
-        <v>5.264277517437827</v>
+        <v>8.869402655754811</v>
       </c>
       <c r="D93">
-        <v>2.900624525909232</v>
+        <v>2.299757181095986</v>
       </c>
       <c r="E93">
-        <v>17.74814346270717</v>
+        <v>2.25230108237278</v>
       </c>
       <c r="F93">
-        <v>5.329626482920572</v>
+        <v>5.044356339991124</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>9.731979959834504</v>
+        <v>4.552281569650507</v>
       </c>
       <c r="C94">
-        <v>5.303957279179392</v>
+        <v>8.894230696972889</v>
       </c>
       <c r="D94">
-        <v>2.953752260743419</v>
+        <v>2.32449320519913</v>
       </c>
       <c r="E94">
-        <v>17.83526503349768</v>
+        <v>2.267545457743045</v>
       </c>
       <c r="F94">
-        <v>5.376449955825334</v>
+        <v>5.10250327358159</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.780038926041959</v>
+        <v>4.594378987107229</v>
       </c>
       <c r="C95">
-        <v>5.34353510260988</v>
+        <v>8.918538580787798</v>
       </c>
       <c r="D95">
-        <v>3.007071141509273</v>
+        <v>2.350981873129114</v>
       </c>
       <c r="E95">
-        <v>17.92111957930864</v>
+        <v>2.283706035728352</v>
       </c>
       <c r="F95">
-        <v>5.423005661027354</v>
+        <v>5.160425736825074</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.827472461217823</v>
+        <v>4.637026531296263</v>
       </c>
       <c r="C96">
-        <v>5.383001054116419</v>
+        <v>8.942336928450089</v>
       </c>
       <c r="D96">
-        <v>3.060420261023495</v>
+        <v>2.379218314328727</v>
       </c>
       <c r="E96">
-        <v>18.00572345913853</v>
+        <v>2.300818875119237</v>
       </c>
       <c r="F96">
-        <v>5.469292875436801</v>
+        <v>5.218094635414991</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.874288408149816</v>
+        <v>4.68020734074479</v>
       </c>
       <c r="C97">
-        <v>5.42234572233509</v>
+        <v>8.96563615218607</v>
       </c>
       <c r="D97">
-        <v>3.11367558260008</v>
+        <v>2.409165357685692</v>
       </c>
       <c r="E97">
-        <v>18.08909289229454</v>
+        <v>2.318915907479412</v>
       </c>
       <c r="F97">
-        <v>5.515310975660381</v>
+        <v>5.275484194925974</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.920494529807467</v>
+        <v>4.723902770853043</v>
       </c>
       <c r="C98">
-        <v>5.461560134080818</v>
+        <v>8.988446455324299</v>
       </c>
       <c r="D98">
-        <v>3.166742641870774</v>
+        <v>2.440753286317158</v>
       </c>
       <c r="E98">
-        <v>18.17124393723417</v>
+        <v>2.338023689756447</v>
       </c>
       <c r="F98">
-        <v>5.561059434994013</v>
+        <v>5.33257162624343</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.966098472265676</v>
+        <v>4.768092604622282</v>
       </c>
       <c r="C99">
-        <v>5.500635852502196</v>
+        <v>9.010777838614981</v>
       </c>
       <c r="D99">
-        <v>3.219550049323323</v>
+        <v>2.473881697681223</v>
       </c>
       <c r="E99">
-        <v>18.25219250870972</v>
+        <v>2.358162136133785</v>
       </c>
       <c r="F99">
-        <v>5.606537819595133</v>
+        <v>5.389336798184886</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.01110780540378</v>
+        <v>4.812755281211235</v>
       </c>
       <c r="C100">
-        <v>5.539564867260474</v>
+        <v>9.032640107994576</v>
       </c>
       <c r="D100">
-        <v>3.272044203698993</v>
+        <v>2.508424217546699</v>
       </c>
       <c r="E100">
-        <v>18.33195436561771</v>
+        <v>2.379343300902075</v>
       </c>
       <c r="F100">
-        <v>5.651745786315924</v>
+        <v>5.445761981733073</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10.05553000567891</v>
+        <v>4.857868133914484</v>
       </c>
       <c r="C101">
-        <v>5.578339669411171</v>
+        <v>9.054042872493863</v>
       </c>
       <c r="D101">
-        <v>3.324185138329688</v>
+        <v>2.544235098645285</v>
       </c>
       <c r="E101">
-        <v>18.41054511757591</v>
+        <v>2.401570305854448</v>
       </c>
       <c r="F101">
-        <v>5.696683079769368</v>
+        <v>5.501831569214676</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10.09937247059542</v>
+        <v>4.903407629776845</v>
       </c>
       <c r="C102">
-        <v>5.616953183280098</v>
+        <v>9.074995546094009</v>
       </c>
       <c r="D102">
-        <v>3.375943255903592</v>
+        <v>2.581156771355309</v>
       </c>
       <c r="E102">
-        <v>18.48798021955288</v>
+        <v>2.424836510208878</v>
       </c>
       <c r="F102">
-        <v>5.741349529089391</v>
+        <v>5.55753183444469</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>10.14264251403005</v>
+        <v>4.949349604912424</v>
       </c>
       <c r="C103">
-        <v>5.655398766903227</v>
+        <v>9.095507360532249</v>
       </c>
       <c r="D103">
-        <v>3.427296793347093</v>
+        <v>2.61902738121355</v>
       </c>
       <c r="E103">
-        <v>18.56427497625949</v>
+        <v>2.449125015980405</v>
       </c>
       <c r="F103">
-        <v>5.785745045112813</v>
+        <v>5.61285075602382</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10.18534736668259</v>
+        <v>4.995669490979331</v>
       </c>
       <c r="C104">
-        <v>5.693670207203727</v>
+        <v>9.115587361957626</v>
       </c>
       <c r="D104">
-        <v>3.478229905948392</v>
+        <v>2.657687511669724</v>
       </c>
       <c r="E104">
-        <v>18.63944453885241</v>
+        <v>2.47440857757641</v>
       </c>
       <c r="F104">
-        <v>5.829869617551856</v>
+        <v>5.667777801520582</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>10.22749417873393</v>
+        <v>5.042342529565142</v>
       </c>
       <c r="C105">
-        <v>5.731761673272804</v>
+        <v>9.135244409722606</v>
       </c>
       <c r="D105">
-        <v>3.528731257462597</v>
+        <v>2.696985499736709</v>
       </c>
       <c r="E105">
-        <v>18.71350390719937</v>
+        <v>2.500649955617023</v>
       </c>
       <c r="F105">
-        <v>5.873723312742874</v>
+        <v>5.722303751675561</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>10.26909001952668</v>
+        <v>5.089343970602803</v>
       </c>
       <c r="C106">
-        <v>5.76966773237544</v>
+        <v>9.15448719210524</v>
       </c>
       <c r="D106">
-        <v>3.57879294051844</v>
+        <v>2.736781182722831</v>
       </c>
       <c r="E106">
-        <v>18.78646793060755</v>
+        <v>2.527802700169826</v>
       </c>
       <c r="F106">
-        <v>5.917306270896987</v>
+        <v>5.776420582313202</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>10.31014187931249</v>
+        <v>5.136649247215215</v>
       </c>
       <c r="C107">
-        <v>5.807383308337302</v>
+        <v>9.173324221705657</v>
       </c>
       <c r="D107">
-        <v>3.628409659167539</v>
+        <v>2.776948043194094</v>
       </c>
       <c r="E107">
-        <v>18.85835130677128</v>
+        <v>2.555812320137261</v>
       </c>
       <c r="F107">
-        <v>5.960618703628194</v>
+        <v>5.830121312723391</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10.35065667012064</v>
+        <v>5.184234138703339</v>
       </c>
       <c r="C108">
-        <v>5.844903681764063</v>
+        <v>9.191763836126686</v>
       </c>
       <c r="D108">
-        <v>3.67757811242428</v>
+        <v>2.817374141278818</v>
       </c>
       <c r="E108">
-        <v>18.92916858537613</v>
+        <v>2.584617794489157</v>
       </c>
       <c r="F108">
-        <v>6.003660891816986</v>
+        <v>5.883399873911033</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>10.39064122180737</v>
+        <v>5.232074909172135</v>
       </c>
       <c r="C109">
-        <v>5.88222447172647</v>
+        <v>9.20981420730917</v>
       </c>
       <c r="D109">
-        <v>3.726296531105513</v>
+        <v>2.857961980681367</v>
       </c>
       <c r="E109">
-        <v>18.99893416244923</v>
+        <v>2.614153245543971</v>
       </c>
       <c r="F109">
-        <v>6.04643318295714</v>
+        <v>5.936251039972749</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>10.43010229863917</v>
+        <v>5.280148424425578</v>
       </c>
       <c r="C110">
-        <v>5.919341615811162</v>
+        <v>9.227483344009986</v>
       </c>
       <c r="D110">
-        <v>3.774564329088588</v>
+        <v>2.898627772938459</v>
       </c>
       <c r="E110">
-        <v>19.06766228394663</v>
+        <v>2.644349694733579</v>
       </c>
       <c r="F110">
-        <v>6.088935988882789</v>
+        <v>5.988670317466161</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>10.46904657620818</v>
+        <v>5.328432248368344</v>
       </c>
       <c r="C111">
-        <v>5.956251361659426</v>
+        <v>9.244779090722369</v>
       </c>
       <c r="D111">
-        <v>3.822381833110192</v>
+        <v>2.939300256005808</v>
       </c>
       <c r="E111">
-        <v>19.13536705553213</v>
+        <v>2.675136774830563</v>
       </c>
       <c r="F111">
-        <v>6.131169783435891</v>
+        <v>6.04065385290487</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>10.50748065815977</v>
+        <v>5.376904721361107</v>
       </c>
       <c r="C112">
-        <v>5.992950245729643</v>
+        <v>9.261709131614158</v>
       </c>
       <c r="D112">
-        <v>3.8697500803119</v>
+        <v>2.979919350769447</v>
       </c>
       <c r="E112">
-        <v>19.20206242233677</v>
+        <v>2.706444300946187</v>
       </c>
       <c r="F112">
-        <v>6.173135100244124</v>
+        <v>6.092198389196941</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>10.54541108364922</v>
+        <v>5.425545020538745</v>
       </c>
       <c r="C113">
-        <v>6.029435080688736</v>
+        <v>9.278280999248047</v>
       </c>
       <c r="D113">
-        <v>3.916670659981509</v>
+        <v>3.020434766473227</v>
       </c>
       <c r="E113">
-        <v>19.2677621822835</v>
+        <v>2.738203629453608</v>
       </c>
       <c r="F113">
-        <v>6.214832530423998</v>
+        <v>6.1433011891587</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>10.58284430613212</v>
+        <v>5.474333203544784</v>
       </c>
       <c r="C114">
-        <v>6.065702941657923</v>
+        <v>9.294502071797581</v>
       </c>
       <c r="D114">
-        <v>3.96314559311813</v>
+        <v>3.060804657401389</v>
       </c>
       <c r="E114">
-        <v>19.33247999528681</v>
+        <v>2.770348763637361</v>
       </c>
       <c r="F114">
-        <v>6.256262720556315</v>
+        <v>6.19395997159137</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>10.61978671334288</v>
+        <v>5.52325023671867</v>
       </c>
       <c r="C115">
-        <v>6.101751151971862</v>
+        <v>9.310379573350499</v>
       </c>
       <c r="D115">
-        <v>4.009177243528656</v>
+        <v>3.100994372779565</v>
       </c>
       <c r="E115">
-        <v>19.39622936612924</v>
+        <v>2.802817192706125</v>
       </c>
       <c r="F115">
-        <v>6.297426370545041</v>
+        <v>6.244172880837626</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.65624462267558</v>
+        <v>5.572278010855742</v>
       </c>
       <c r="C116">
-        <v>6.137577268814267</v>
+        <v>9.325920586484768</v>
       </c>
       <c r="D116">
-        <v>4.054768237412768</v>
+        <v>3.140975350977212</v>
       </c>
       <c r="E116">
-        <v>19.45902365070138</v>
+        <v>2.83555047357297</v>
       </c>
       <c r="F116">
-        <v>6.338324231502103</v>
+        <v>6.293938435217083</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>10.69222427822274</v>
+        <v>5.621399345642902</v>
       </c>
       <c r="C117">
-        <v>6.173179064231391</v>
+        <v>9.341132048489381</v>
       </c>
       <c r="D117">
-        <v>4.099921407015474</v>
+        <v>3.18072416252817</v>
       </c>
       <c r="E117">
-        <v>19.52087606346681</v>
+        <v>2.868494580935138</v>
       </c>
       <c r="F117">
-        <v>6.378957103810608</v>
+        <v>6.343255482870479</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>10.7277318538075</v>
+        <v>5.670597984422255</v>
       </c>
       <c r="C118">
-        <v>6.208554525632086</v>
+        <v>9.356020750088963</v>
       </c>
       <c r="D118">
-        <v>4.144639750185414</v>
+        <v>3.220221684250291</v>
       </c>
       <c r="E118">
-        <v>19.58179967521843</v>
+        <v>2.901600057131589</v>
       </c>
       <c r="F118">
-        <v>6.419325835161938</v>
+        <v>6.392123180183054</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>10.76277345565473</v>
+        <v>5.719858580547954</v>
       </c>
       <c r="C119">
-        <v>6.243701845866336</v>
+        <v>9.370593348418085</v>
       </c>
       <c r="D119">
-        <v>4.188926375262144</v>
+        <v>3.259452391005894</v>
       </c>
       <c r="E119">
-        <v>19.64180740604295</v>
+        <v>2.934822020174661</v>
       </c>
       <c r="F119">
-        <v>6.45943131854933</v>
+        <v>6.440540957057787</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.79735512064283</v>
+        <v>5.769166677416645</v>
       </c>
       <c r="C120">
-        <v>6.278619378798077</v>
+        <v>9.384856363875748</v>
       </c>
       <c r="D120">
-        <v>4.232784511035094</v>
+        <v>3.298403755771129</v>
       </c>
       <c r="E120">
-        <v>19.70091203406848</v>
+        <v>2.96812002237306</v>
       </c>
       <c r="F120">
-        <v>6.499274490437717</v>
+        <v>6.488508486309424</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10.83148281465378</v>
+        <v>5.818508683312796</v>
       </c>
       <c r="C121">
-        <v>6.313305668397095</v>
+        <v>9.398816180451185</v>
       </c>
       <c r="D121">
-        <v>4.276217463487725</v>
+        <v>3.33706574767069</v>
       </c>
       <c r="E121">
-        <v>19.75912619599813</v>
+        <v>3.001457846125253</v>
       </c>
       <c r="F121">
-        <v>6.538856328972833</v>
+        <v>6.536025668036991</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10.86516243862256</v>
+        <v>5.867871842165491</v>
       </c>
       <c r="C122">
-        <v>6.347759445732114</v>
+        <v>9.412479051906033</v>
       </c>
       <c r="D122">
-        <v>4.319228599101039</v>
+        <v>3.375430415054383</v>
       </c>
       <c r="E122">
-        <v>19.8164623826233</v>
+        <v>3.034803236984965</v>
       </c>
       <c r="F122">
-        <v>6.578177852117863</v>
+        <v>6.583092606062971</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10.89839982494053</v>
+        <v>5.917244201226608</v>
       </c>
       <c r="C123">
-        <v>6.381979556695799</v>
+        <v>9.425851105948215</v>
       </c>
       <c r="D123">
-        <v>4.361821329854193</v>
+        <v>3.413491539706276</v>
       </c>
       <c r="E123">
-        <v>19.8729329431617</v>
+        <v>3.068127603794867</v>
       </c>
       <c r="F123">
-        <v>6.617240115972688</v>
+        <v>6.629709586587985</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.93120073902558</v>
+        <v>5.966614576785055</v>
       </c>
       <c r="C124">
-        <v>6.415965012791178</v>
+        <v>9.438938342422167</v>
       </c>
       <c r="D124">
-        <v>4.403999100346713</v>
+        <v>3.451244348274009</v>
       </c>
       <c r="E124">
-        <v>19.92855008583318</v>
+        <v>3.101405705067316</v>
       </c>
       <c r="F124">
-        <v>6.656044213083788</v>
+        <v>6.6758770672476</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10.96357088045242</v>
+        <v>6.015972518625397</v>
       </c>
       <c r="C125">
-        <v>6.449714992172055</v>
+        <v>9.451746635357223</v>
       </c>
       <c r="D125">
-        <v>4.44576537999687</v>
+        <v>3.488685269756221</v>
       </c>
       <c r="E125">
-        <v>19.98332587692563</v>
+        <v>3.134615335181963</v>
       </c>
       <c r="F125">
-        <v>6.694591270756201</v>
+        <v>6.721595665346985</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.99551588364645</v>
+        <v>6.065308273805873</v>
       </c>
       <c r="C126">
-        <v>6.483228760161618</v>
+        <v>9.464281741891591</v>
       </c>
       <c r="D126">
-        <v>4.487123653335656</v>
+        <v>3.525811738243867</v>
       </c>
       <c r="E126">
-        <v>20.03727224241313</v>
+        <v>3.167737020375251</v>
       </c>
       <c r="F126">
-        <v>6.732882449470312</v>
+        <v>6.766866125118719</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.02704131764555</v>
+        <v>6.114612750350491</v>
       </c>
       <c r="C127">
-        <v>6.516505721699357</v>
+        <v>9.476549299266603</v>
       </c>
       <c r="D127">
-        <v>4.528077417667263</v>
+        <v>3.562622026291556</v>
       </c>
       <c r="E127">
-        <v>20.09040096993451</v>
+        <v>3.200753730961623</v>
       </c>
       <c r="F127">
-        <v>6.770918941352608</v>
+        <v>6.811689343210836</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>11.05815268728503</v>
+        <v>6.1638774813513</v>
       </c>
       <c r="C128">
-        <v>6.549545423791024</v>
+        <v>9.488554824096395</v>
       </c>
       <c r="D128">
-        <v>4.568630176456524</v>
+        <v>3.599115107803097</v>
       </c>
       <c r="E128">
-        <v>20.14272370794741</v>
+        <v>3.233650613666004</v>
       </c>
       <c r="F128">
-        <v>6.808701968617869</v>
+        <v>6.856066306081644</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.08885543398598</v>
+        <v>6.21309459005095</v>
       </c>
       <c r="C129">
-        <v>6.582347485671772</v>
+        <v>9.500303724011118</v>
       </c>
       <c r="D129">
-        <v>4.608785434342413</v>
+        <v>3.635290543573025</v>
       </c>
       <c r="E129">
-        <v>20.19425196596839</v>
+        <v>3.266414746008023</v>
       </c>
       <c r="F129">
-        <v>6.846232782093553</v>
+        <v>6.899998127706484</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.11915493565928</v>
+        <v>6.262256754899215</v>
       </c>
       <c r="C130">
-        <v>6.614911641475103</v>
+        <v>9.511801293777213</v>
       </c>
       <c r="D130">
-        <v>4.64854669420353</v>
+        <v>3.671148385687377</v>
       </c>
       <c r="E130">
-        <v>20.24499711756014</v>
+        <v>3.299034913616557</v>
       </c>
       <c r="F130">
-        <v>6.883512659830052</v>
+        <v>6.943486022583743</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.14905650775227</v>
+        <v>6.311357176427895</v>
       </c>
       <c r="C131">
-        <v>6.647237745339476</v>
+        <v>9.523052714835108</v>
       </c>
       <c r="D131">
-        <v>4.687917452702777</v>
+        <v>3.70668909777817</v>
       </c>
       <c r="E131">
-        <v>20.29497040166178</v>
+        <v>3.33150140852788</v>
       </c>
       <c r="F131">
-        <v>6.920542905678712</v>
+        <v>6.986531285288896</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.17856540372021</v>
+        <v>6.360389546281438</v>
       </c>
       <c r="C132">
-        <v>6.679325710833475</v>
+        <v>9.53406306415706</v>
       </c>
       <c r="D132">
-        <v>4.7269011977832</v>
+        <v>3.74191348848946</v>
       </c>
       <c r="E132">
-        <v>20.34418291924177</v>
+        <v>3.363805850257664</v>
       </c>
       <c r="F132">
-        <v>6.957324847951424</v>
+        <v>7.029135322387672</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.20768681394151</v>
+        <v>6.409348016162098</v>
       </c>
       <c r="C133">
-        <v>6.711175545945938</v>
+        <v>9.544837313816346</v>
       </c>
       <c r="D133">
-        <v>4.765501408814398</v>
+        <v>3.776822655845443</v>
       </c>
       <c r="E133">
-        <v>20.3926456376784</v>
+        <v>3.395941026321827</v>
       </c>
       <c r="F133">
-        <v>6.993859838181911</v>
+        <v>7.071299598018344</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.23642586962033</v>
+        <v>6.45822716908658</v>
       </c>
       <c r="C134">
-        <v>6.742787362503831</v>
+        <v>9.555380330384729</v>
       </c>
       <c r="D134">
-        <v>4.803721547075699</v>
+        <v>3.811417940744171</v>
       </c>
       <c r="E134">
-        <v>20.440369392848</v>
+        <v>3.427900750455545</v>
       </c>
       <c r="F134">
-        <v>7.030149249548743</v>
+        <v>7.113025672429486</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.26478764098554</v>
+        <v>6.507021991739514</v>
       </c>
       <c r="C135">
-        <v>6.774161318155895</v>
+        <v>9.565696878771989</v>
       </c>
       <c r="D135">
-        <v>4.841565068659321</v>
+        <v>3.84570089319849</v>
       </c>
       <c r="E135">
-        <v>20.48736488569517</v>
+        <v>3.459679737668517</v>
       </c>
       <c r="F135">
-        <v>7.066194476297429</v>
+        <v>7.154315162934479</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.29277713844258</v>
+        <v>6.555727848515786</v>
       </c>
       <c r="C136">
-        <v>6.805297649058908</v>
+        <v>9.575791627337328</v>
       </c>
       <c r="D136">
-        <v>4.879035404533246</v>
+        <v>3.879673224653074</v>
       </c>
       <c r="E136">
-        <v>20.53364268603963</v>
+        <v>3.491273494210555</v>
       </c>
       <c r="F136">
-        <v>7.101996931339769</v>
+        <v>7.19516976091517</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.32039931108332</v>
+        <v>6.604340457319337</v>
       </c>
       <c r="C137">
-        <v>6.83619668208437</v>
+        <v>9.58566914575078</v>
       </c>
       <c r="D137">
-        <v>4.916135979356013</v>
+        <v>3.913336797240823</v>
       </c>
       <c r="E137">
-        <v>20.57921323574067</v>
+        <v>3.522678220855745</v>
       </c>
       <c r="F137">
-        <v>7.137558046838468</v>
+        <v>7.235591213066841</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.3476590501364</v>
+        <v>6.652855866307723</v>
       </c>
       <c r="C138">
-        <v>6.866858778798528</v>
+        <v>9.595333905698332</v>
       </c>
       <c r="D138">
-        <v>4.952870193302167</v>
+        <v>3.946693578676881</v>
       </c>
       <c r="E138">
-        <v>20.62408684441401</v>
+        <v>3.553890728014358</v>
       </c>
       <c r="F138">
-        <v>7.17287927109799</v>
+        <v>7.275581326678783</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.37456118914146</v>
+        <v>6.701270432212085</v>
       </c>
       <c r="C139">
-        <v>6.897284366380076</v>
+        <v>9.604790289409276</v>
       </c>
       <c r="D139">
-        <v>4.989241433425017</v>
+        <v>3.979745639227022</v>
       </c>
       <c r="E139">
-        <v>20.66827369251744</v>
+        <v>3.584908361300409</v>
       </c>
       <c r="F139">
-        <v>7.207962069209688</v>
+        <v>7.315141961311325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.40111050328985</v>
+        <v>6.749580800072077</v>
       </c>
       <c r="C140">
-        <v>6.927473949500934</v>
+        <v>9.614042586744876</v>
       </c>
       <c r="D140">
-        <v>5.02525306543787</v>
+        <v>4.012495139746747</v>
       </c>
       <c r="E140">
-        <v>20.71178383253277</v>
+        <v>3.615728936784633</v>
       </c>
       <c r="F140">
-        <v>7.242807921016827</v>
+        <v>7.354275024755852</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.4273117095973</v>
+        <v>6.797783883833144</v>
       </c>
       <c r="C141">
-        <v>6.957428060834569</v>
+        <v>9.623094993880375</v>
       </c>
       <c r="D141">
-        <v>5.060908436245626</v>
+        <v>4.044944295465936</v>
       </c>
       <c r="E141">
-        <v>20.75462718945856</v>
+        <v>3.646350689002514</v>
       </c>
       <c r="F141">
-        <v>7.277418320326088</v>
+        <v>7.392982476790424</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.45316946746631</v>
+        <v>6.845876849042877</v>
       </c>
       <c r="C142">
-        <v>6.9871472874274</v>
+        <v>9.631951623613254</v>
       </c>
       <c r="D142">
-        <v>5.096210871754761</v>
+        <v>4.077095392469582</v>
       </c>
       <c r="E142">
-        <v>20.79681357036248</v>
+        <v>3.676772206778546</v>
       </c>
       <c r="F142">
-        <v>7.311794774238875</v>
+        <v>7.431266315195604</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.47868838149314</v>
+        <v>6.893857095931944</v>
       </c>
       <c r="C143">
-        <v>7.016632280845439</v>
+        <v>9.640616501721146</v>
       </c>
       <c r="D143">
-        <v>5.131163677387486</v>
+        <v>4.108950754828755</v>
       </c>
       <c r="E143">
-        <v>20.83835264915175</v>
+        <v>3.706992402889578</v>
       </c>
       <c r="F143">
-        <v>7.345938801547779</v>
+        <v>7.469128586583531</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.50387299969066</v>
+        <v>6.941722243830412</v>
       </c>
       <c r="C144">
-        <v>7.045883716611742</v>
+        <v>9.649093567085441</v>
       </c>
       <c r="D144">
-        <v>5.165770136404809</v>
+        <v>4.140512743846468</v>
       </c>
       <c r="E144">
-        <v>20.87925397573638</v>
+        <v>3.737010465099679</v>
       </c>
       <c r="F144">
-        <v>7.379851932587117</v>
+        <v>7.506571370927057</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.52872781458441</v>
+        <v>6.989470116692587</v>
       </c>
       <c r="C145">
-        <v>7.0749023148104</v>
+        <v>9.657386677350146</v>
       </c>
       <c r="D145">
-        <v>5.200033510506907</v>
+        <v>4.171783750178818</v>
       </c>
       <c r="E145">
-        <v>20.91952697767413</v>
+        <v>3.766825820942052</v>
       </c>
       <c r="F145">
-        <v>7.413535707463384</v>
+        <v>7.543596790067374</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.55325726323209</v>
+        <v>7.03709872925826</v>
       </c>
       <c r="C146">
-        <v>7.103688849117893</v>
+        <v>9.665499610304808</v>
       </c>
       <c r="D146">
-        <v>5.233957039424501</v>
+        <v>4.202766180739963</v>
       </c>
       <c r="E146">
-        <v>20.95918095987824</v>
+        <v>3.79643813284751</v>
       </c>
       <c r="F146">
-        <v>7.446991676161215</v>
+        <v>7.580206997504918</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11.57746572898149</v>
+        <v>7.084606274696746</v>
       </c>
       <c r="C147">
-        <v>7.132244113536813</v>
+        <v>9.673436062752947</v>
       </c>
       <c r="D147">
-        <v>5.267543939780619</v>
+        <v>4.233462463026121</v>
       </c>
       <c r="E147">
-        <v>20.99822511848314</v>
+        <v>3.825847237409384</v>
       </c>
       <c r="F147">
-        <v>7.480221396646728</v>
+        <v>7.616404181119869</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11.60135754101058</v>
+        <v>7.131991112695959</v>
       </c>
       <c r="C148">
-        <v>7.160568938728541</v>
+        <v>9.681199652641789</v>
       </c>
       <c r="D148">
-        <v>5.300797406341805</v>
+        <v>4.263875031953189</v>
       </c>
       <c r="E148">
-        <v>21.03666851789159</v>
+        <v>3.855053157061378</v>
       </c>
       <c r="F148">
-        <v>7.513226435139933</v>
+        <v>7.652190559235224</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>11.62493697509177</v>
+        <v>7.179251758402983</v>
       </c>
       <c r="C149">
-        <v>7.188664198309957</v>
+        <v>9.688793924459487</v>
       </c>
       <c r="D149">
-        <v>5.33372061012308</v>
+        <v>4.294006331856546</v>
       </c>
       <c r="E149">
-        <v>21.07452010368328</v>
+        <v>3.884056056512962</v>
       </c>
       <c r="F149">
-        <v>7.546008364419347</v>
+        <v>7.687568378600056</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11.64820825418144</v>
+        <v>7.226386872180901</v>
       </c>
       <c r="C150">
-        <v>7.216530785084072</v>
+        <v>9.696222346467827</v>
       </c>
       <c r="D150">
-        <v>5.36631669953318</v>
+        <v>4.323858810712324</v>
       </c>
       <c r="E150">
-        <v>21.11178870525546</v>
+        <v>3.912856230898566</v>
       </c>
       <c r="F150">
-        <v>7.578568763659453</v>
+        <v>7.722539914194836</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>11.67117554878638</v>
+        <v>7.273395249918696</v>
       </c>
       <c r="C151">
-        <v>7.244169620345467</v>
+        <v>9.703488308773515</v>
       </c>
       <c r="D151">
-        <v>5.39858879919781</v>
+        <v>4.35343491580571</v>
       </c>
       <c r="E151">
-        <v>21.14848303486277</v>
+        <v>3.94145409435095</v>
       </c>
       <c r="F151">
-        <v>7.610909217546935</v>
+        <v>7.757107464896577</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.69384297756037</v>
+        <v>7.320275814165376</v>
       </c>
       <c r="C152">
-        <v>7.271581661203588</v>
+        <v>9.71059513741829</v>
       </c>
       <c r="D152">
-        <v>5.430540010370291</v>
+        <v>4.382737093330184</v>
       </c>
       <c r="E152">
-        <v>21.18461169928862</v>
+        <v>3.969850155860758</v>
       </c>
       <c r="F152">
-        <v>7.643031315370134</v>
+        <v>7.791273355658857</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.71621460780975</v>
+        <v>7.367027606072027</v>
       </c>
       <c r="C153">
-        <v>7.298767881721138</v>
+        <v>9.717546086853805</v>
       </c>
       <c r="D153">
-        <v>5.462173410347194</v>
+        <v>4.411767783906492</v>
       </c>
       <c r="E153">
-        <v>21.22018318145828</v>
+        <v>3.998045019377728</v>
       </c>
       <c r="F153">
-        <v>7.674936650818445</v>
+        <v>7.825039931719337</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.73829445586066</v>
+        <v>7.413649777644943</v>
       </c>
       <c r="C154">
-        <v>7.325729278239624</v>
+        <v>9.724344344060869</v>
       </c>
       <c r="D154">
-        <v>5.493492053184876</v>
+        <v>4.440529421537509</v>
       </c>
       <c r="E154">
-        <v>21.255205850656</v>
+        <v>4.026039365903757</v>
       </c>
       <c r="F154">
-        <v>7.706626820680309</v>
+        <v>7.858409561627459</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11.76008648771289</v>
+        <v>7.460141583442729</v>
       </c>
       <c r="C155">
-        <v>7.352466876166219</v>
+        <v>9.730993025629791</v>
       </c>
       <c r="D155">
-        <v>5.524498968157021</v>
+        <v>4.469024432306124</v>
       </c>
       <c r="E155">
-        <v>21.2896879654821</v>
+        <v>4.053833945924024</v>
       </c>
       <c r="F155">
-        <v>7.738103424982278</v>
+        <v>7.891384631969395</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11.78159461962908</v>
+        <v>7.506502375135671</v>
       </c>
       <c r="C156">
-        <v>7.378981716341217</v>
+        <v>9.737495170507115</v>
       </c>
       <c r="D156">
-        <v>5.55519716022602</v>
+        <v>4.497255231287514</v>
       </c>
       <c r="E156">
-        <v>21.32363767316017</v>
+        <v>4.081429574329412</v>
       </c>
       <c r="F156">
-        <v>7.769368065550354</v>
+        <v>7.923967548799189</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11.80282271848623</v>
+        <v>7.552731593413274</v>
       </c>
       <c r="C157">
-        <v>7.405274856825375</v>
+        <v>9.743853775163709</v>
       </c>
       <c r="D157">
-        <v>5.585589611944257</v>
+        <v>4.525224223577658</v>
       </c>
       <c r="E157">
-        <v>21.35706301552941</v>
+        <v>4.10882711744645</v>
       </c>
       <c r="F157">
-        <v>7.800422346827784</v>
+        <v>7.95616073521258</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.82377460219192</v>
+        <v>7.598828763851027</v>
       </c>
       <c r="C158">
-        <v>7.431347378817614</v>
+        <v>9.750071766320675</v>
       </c>
       <c r="D158">
-        <v>5.615679280147321</v>
+        <v>4.552933801303178</v>
       </c>
       <c r="E158">
-        <v>21.38997192128063</v>
+        <v>4.136027491207837</v>
       </c>
       <c r="F158">
-        <v>7.831267873330494</v>
+        <v>7.987966630093474</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.84445404004007</v>
+        <v>7.64479349084773</v>
       </c>
       <c r="C159">
-        <v>7.457200377302902</v>
+        <v>9.756152010653498</v>
       </c>
       <c r="D159">
-        <v>5.645469096783763</v>
+        <v>4.580386343789136</v>
       </c>
       <c r="E159">
-        <v>21.42237221093546</v>
+        <v>4.163031652746199</v>
       </c>
       <c r="F159">
-        <v>7.86190624994475</v>
+        <v>8.019387687693639</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.86486475391975</v>
+        <v>7.690625452013417</v>
       </c>
       <c r="C160">
-        <v>7.482834960449184</v>
+        <v>9.762097306611951</v>
       </c>
       <c r="D160">
-        <v>5.67496197114998</v>
+        <v>4.607584216352747</v>
       </c>
       <c r="E160">
-        <v>21.45427159906726</v>
+        <v>4.18984059473851</v>
       </c>
       <c r="F160">
-        <v>7.892339082326285</v>
+        <v>8.050426375378564</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.88501041819944</v>
+        <v>7.73632439534691</v>
       </c>
       <c r="C161">
-        <v>7.50825225478652</v>
+        <v>9.767910376259163</v>
       </c>
       <c r="D161">
-        <v>5.704160788740522</v>
+        <v>4.634529769364271</v>
       </c>
       <c r="E161">
-        <v>21.48567769450317</v>
+        <v>4.216455343631537</v>
       </c>
       <c r="F161">
-        <v>7.922567976740695</v>
+        <v>8.0810851739932</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.9048946603721</v>
+        <v>7.781890131608266</v>
       </c>
       <c r="C162">
-        <v>7.533453398704387</v>
+        <v>9.773593918135211</v>
       </c>
       <c r="D162">
-        <v>5.73306840855473</v>
+        <v>4.661225338539979</v>
       </c>
       <c r="E162">
-        <v>21.51659800250825</v>
+        <v>4.242876951904513</v>
       </c>
       <c r="F162">
-        <v>7.9525945355598</v>
+        <v>8.111366575190981</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.92452106095972</v>
+        <v>7.827322533529968</v>
       </c>
       <c r="C163">
-        <v>7.558439540471748</v>
+        <v>9.77915056156027</v>
       </c>
       <c r="D163">
-        <v>5.761687666473772</v>
+        <v>4.687673242225614</v>
       </c>
       <c r="E163">
-        <v>21.54703992391367</v>
+        <v>4.269106497895908</v>
       </c>
       <c r="F163">
-        <v>7.982420359935204</v>
+        <v>8.141273082244997</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.94389315530965</v>
+        <v>7.872621528365934</v>
       </c>
       <c r="C164">
-        <v>7.583211842922757</v>
+        <v>9.784582881525575</v>
       </c>
       <c r="D164">
-        <v>5.790021375987975</v>
+        <v>4.713875784314764</v>
       </c>
       <c r="E164">
-        <v>21.57701075699419</v>
+        <v>4.29514508066714</v>
       </c>
       <c r="F164">
-        <v>8.012047053546405</v>
+        <v>8.170807207342843</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.96301443312497</v>
+        <v>7.917787097483299</v>
       </c>
       <c r="C165">
-        <v>7.607771478841461</v>
+        <v>9.78989339019631</v>
       </c>
       <c r="D165">
-        <v>5.818072323978062</v>
+        <v>4.739835250393671</v>
       </c>
       <c r="E165">
-        <v>21.60651769886543</v>
+        <v>4.320993817130239</v>
       </c>
       <c r="F165">
-        <v>8.041476213710144</v>
+        <v>8.199971472554719</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.98188833920845</v>
+        <v>7.962819269684222</v>
       </c>
       <c r="C166">
-        <v>7.632119628127874</v>
+        <v>9.795084534754366</v>
       </c>
       <c r="D166">
-        <v>5.845843273926378</v>
+        <v>4.765553908129282</v>
       </c>
       <c r="E166">
-        <v>21.63556784635071</v>
+        <v>4.346653840619691</v>
       </c>
       <c r="F166">
-        <v>8.070709434679147</v>
+        <v>8.228768407354403</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>12.00051827345128</v>
+        <v>8.007718121338478</v>
       </c>
       <c r="C167">
-        <v>7.656257482096486</v>
+        <v>9.800158736980606</v>
       </c>
       <c r="D167">
-        <v>5.873336966588593</v>
+        <v>4.791034011416081</v>
       </c>
       <c r="E167">
-        <v>21.66416819729015</v>
+        <v>4.372126297616809</v>
       </c>
       <c r="F167">
-        <v>8.099748308640782</v>
+        <v>8.257200547445162</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>12.01890759214165</v>
+        <v>8.052483770263173</v>
       </c>
       <c r="C168">
-        <v>7.680186240260721</v>
+        <v>9.805118357160183</v>
       </c>
       <c r="D168">
-        <v>5.900556117338159</v>
+        <v>4.816277792224425</v>
       </c>
       <c r="E168">
-        <v>21.69232565122346</v>
+        <v>4.397412346562258</v>
       </c>
       <c r="F168">
-        <v>8.128594427699296</v>
+        <v>8.285270435574974</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>12.03705960815477</v>
+        <v>8.097116375650373</v>
       </c>
       <c r="C169">
-        <v>7.703907106988446</v>
+        <v>9.809965706251651</v>
       </c>
       <c r="D169">
-        <v>5.927503418000994</v>
+        <v>4.841287467855301</v>
       </c>
       <c r="E169">
-        <v>21.72004701061846</v>
+        <v>4.422513152020622</v>
       </c>
       <c r="F169">
-        <v>8.157249375240509</v>
+        <v>8.312980622002206</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>12.0549775913003</v>
+        <v>8.141616133310272</v>
       </c>
       <c r="C170">
-        <v>7.727421295348393</v>
+        <v>9.814703039861643</v>
       </c>
       <c r="D170">
-        <v>5.954181536898846</v>
+        <v>4.866065237220212</v>
       </c>
       <c r="E170">
-        <v>21.74733898202991</v>
+        <v>4.447429893071586</v>
       </c>
       <c r="F170">
-        <v>8.185714731811968</v>
+        <v>8.340333657517213</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.07266476858585</v>
+        <v>8.185983274685709</v>
       </c>
       <c r="C171">
-        <v>7.750730024971139</v>
+        <v>9.81933256035815</v>
       </c>
       <c r="D171">
-        <v>5.98059311833287</v>
+        <v>4.890613280361437</v>
       </c>
       <c r="E171">
-        <v>21.77420817713192</v>
+        <v>4.472163746060557</v>
       </c>
       <c r="F171">
-        <v>8.213992075357798</v>
+        <v>8.367332097146424</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.09012432486672</v>
+        <v>8.230218063652446</v>
       </c>
       <c r="C172">
-        <v>7.773834518535971</v>
+        <v>9.823856438523073</v>
       </c>
       <c r="D172">
-        <v>6.006740782749289</v>
+        <v>4.914933760928221</v>
       </c>
       <c r="E172">
-        <v>21.8006611138499</v>
+        <v>4.496715896163213</v>
       </c>
       <c r="F172">
-        <v>8.242082978305529</v>
+        <v>8.393978504972802</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.10735940383961</v>
+        <v>8.274320794602929</v>
       </c>
       <c r="C173">
-        <v>7.796736005085638</v>
+        <v>9.828276793079795</v>
       </c>
       <c r="D173">
-        <v>6.032627127329036</v>
+        <v>4.93902882326989</v>
       </c>
       <c r="E173">
-        <v>21.82670421735248</v>
+        <v>4.521087535557619</v>
       </c>
       <c r="F173">
-        <v>8.269989006787299</v>
+        <v>8.420275440947158</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.12437310792983</v>
+        <v>8.318291790723796</v>
       </c>
       <c r="C174">
-        <v>7.819435718679629</v>
+        <v>9.832595698328396</v>
       </c>
       <c r="D174">
-        <v>6.058254725928464</v>
+        <v>4.962900594166317</v>
       </c>
       <c r="E174">
-        <v>21.85234382116125</v>
+        <v>4.545279850354651</v>
       </c>
       <c r="F174">
-        <v>8.297711722048506</v>
+        <v>8.446225467865462</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.14116849880271</v>
+        <v>8.362131401228561</v>
       </c>
       <c r="C175">
-        <v>7.841934894947085</v>
+        <v>9.836815178876245</v>
       </c>
       <c r="D175">
-        <v>6.083626128446714</v>
+        <v>4.986551182168158</v>
       </c>
       <c r="E175">
-        <v>21.87758616825172</v>
+        <v>4.569294039073394</v>
       </c>
       <c r="F175">
-        <v>8.325252681393719</v>
+        <v>8.471831151893367</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.15774859738214</v>
+        <v>8.405840000889938</v>
       </c>
       <c r="C176">
-        <v>7.8642347739026</v>
+        <v>9.840937213950491</v>
       </c>
       <c r="D176">
-        <v>6.108743861765812</v>
+        <v>5.009982677409442</v>
       </c>
       <c r="E176">
-        <v>21.90243741212187</v>
+        <v>4.593131292748774</v>
       </c>
       <c r="F176">
-        <v>8.352613433974666</v>
+        <v>8.49709506041242</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.17411638568384</v>
+        <v>8.449417986741654</v>
       </c>
       <c r="C177">
-        <v>7.886336599167657</v>
+        <v>9.84496375124545</v>
       </c>
       <c r="D177">
-        <v>6.133610430253733</v>
+        <v>5.03319715234967</v>
       </c>
       <c r="E177">
-        <v>21.92690361691338</v>
+        <v>4.616792805413853</v>
       </c>
       <c r="F177">
-        <v>8.3797955232217</v>
+        <v>8.522019757356277</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.19027480619</v>
+        <v>8.492865778225289</v>
       </c>
       <c r="C178">
-        <v>7.908241614659424</v>
+        <v>9.848896692947413</v>
       </c>
       <c r="D178">
-        <v>6.158228314387238</v>
+        <v>5.056196660668681</v>
       </c>
       <c r="E178">
-        <v>21.95099076006151</v>
+        <v>4.640279772302739</v>
       </c>
       <c r="F178">
-        <v>8.406800486908583</v>
+        <v>8.546607807167627</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.20622676261686</v>
+        <v>8.536183814283767</v>
       </c>
       <c r="C179">
-        <v>7.929951067021158</v>
+        <v>9.852737901456141</v>
       </c>
       <c r="D179">
-        <v>6.182599971934633</v>
+        <v>5.078983238395002</v>
       </c>
       <c r="E179">
-        <v>21.97470473289828</v>
+        <v>4.663593384429546</v>
       </c>
       <c r="F179">
-        <v>8.43362985648381</v>
+        <v>8.570861775860667</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.22197511919344</v>
+        <v>8.579372553772343</v>
       </c>
       <c r="C180">
-        <v>7.951466205251088</v>
+        <v>9.856489194091187</v>
       </c>
       <c r="D180">
-        <v>6.206727838545091</v>
+        <v>5.101558903557472</v>
       </c>
       <c r="E180">
-        <v>21.99805134128265</v>
+        <v>4.686734832937089</v>
       </c>
       <c r="F180">
-        <v>8.460285155041245</v>
+        <v>8.594784224084307</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.23752270348454</v>
+        <v>8.622432471039113</v>
       </c>
       <c r="C181">
-        <v>7.972788277533673</v>
+        <v>9.860152349212788</v>
       </c>
       <c r="D181">
-        <v>6.230614326522318</v>
+        <v>5.123925655797786</v>
       </c>
       <c r="E181">
-        <v>22.02103630689827</v>
+        <v>4.709705304984579</v>
       </c>
       <c r="F181">
-        <v>8.486767898865796</v>
+        <v>8.618377710949609</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12.25287230523808</v>
+        <v>8.665364057582583</v>
       </c>
       <c r="C182">
-        <v>7.993918533376445</v>
+        <v>9.863729115648859</v>
       </c>
       <c r="D182">
-        <v>6.254261825830404</v>
+        <v>5.146085477534253</v>
       </c>
       <c r="E182">
-        <v>22.04366526584726</v>
+        <v>4.732505985120536</v>
       </c>
       <c r="F182">
-        <v>8.513079599157152</v>
+        <v>8.641644794174052</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12.2680266771798</v>
+        <v>8.7081678213952</v>
       </c>
       <c r="C183">
-        <v>8.01485822352222</v>
+        <v>9.867221201996307</v>
       </c>
       <c r="D183">
-        <v>6.277672704314822</v>
+        <v>5.168040332831051</v>
       </c>
       <c r="E183">
-        <v>22.06594377368895</v>
+        <v>4.755138055248844</v>
       </c>
       <c r="F183">
-        <v>8.539221757304681</v>
+        <v>8.664588027219063</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>12.28298853477613</v>
+        <v>8.750844279922537</v>
       </c>
       <c r="C184">
-        <v>8.035608596960619</v>
+        <v>9.870630281375854</v>
       </c>
       <c r="D184">
-        <v>6.300849307469981</v>
+        <v>5.189792168269093</v>
       </c>
       <c r="E184">
-        <v>22.08787730548083</v>
+        <v>4.777602691640733</v>
       </c>
       <c r="F184">
-        <v>8.565195867443641</v>
+        <v>8.687209958895712</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>12.29776055763859</v>
+        <v>8.793393967337513</v>
       </c>
       <c r="C185">
-        <v>8.056170903142315</v>
+        <v>9.873957982946834</v>
       </c>
       <c r="D185">
-        <v>6.323793958576553</v>
+        <v>5.211342912854435</v>
       </c>
       <c r="E185">
-        <v>22.10947125553324</v>
+        <v>4.799901068606433</v>
       </c>
       <c r="F185">
-        <v>8.591003416390947</v>
+        <v>8.709513134172886</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>12.3123453900012</v>
+        <v>8.835817429973828</v>
       </c>
       <c r="C186">
-        <v>8.0765463924778</v>
+        <v>9.877205902798282</v>
       </c>
       <c r="D186">
-        <v>6.346508959105909</v>
+        <v>5.232694477903241</v>
       </c>
       <c r="E186">
-        <v>22.13073093908459</v>
+        <v>4.822034354370313</v>
       </c>
       <c r="F186">
-        <v>8.616645884056533</v>
+        <v>8.731500094046908</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.32674564063139</v>
+        <v>8.878115220805153</v>
       </c>
       <c r="C187">
-        <v>8.096736311339178</v>
+        <v>9.880375612229482</v>
       </c>
       <c r="D187">
-        <v>6.368996588814317</v>
+        <v>5.25384875742596</v>
       </c>
       <c r="E187">
-        <v>22.15166159026092</v>
+        <v>4.844003712716226</v>
       </c>
       <c r="F187">
-        <v>8.64212474046726</v>
+        <v>8.753173372530341</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.34096388303654</v>
+        <v>8.920287908294128</v>
       </c>
       <c r="C188">
-        <v>8.116741905107952</v>
+        <v>9.883468645163028</v>
       </c>
       <c r="D188">
-        <v>6.391259105597292</v>
+        <v>5.274807627966718</v>
       </c>
       <c r="E188">
-        <v>22.17226836795776</v>
+        <v>4.865810303595761</v>
       </c>
       <c r="F188">
-        <v>8.667441447868427</v>
+        <v>8.774535498060375</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12.3550026557976</v>
+        <v>8.962336068158111</v>
       </c>
       <c r="C189">
-        <v>8.136564416838475</v>
+        <v>9.886486503607713</v>
       </c>
       <c r="D189">
-        <v>6.413298745922623</v>
+        <v>5.295572948880539</v>
       </c>
       <c r="E189">
-        <v>22.19255635586583</v>
+        <v>4.887455280390274</v>
       </c>
       <c r="F189">
-        <v>8.69259746128766</v>
+        <v>8.795588995545719</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.36886446445804</v>
+        <v>9.004260283162836</v>
       </c>
       <c r="C190">
-        <v>8.156205093039381</v>
+        <v>9.889430648055443</v>
       </c>
       <c r="D190">
-        <v>6.435117725103828</v>
+        <v>5.316146562412596</v>
       </c>
       <c r="E190">
-        <v>22.21253056167859</v>
+        <v>4.908939792189067</v>
       </c>
       <c r="F190">
-        <v>8.717594226478777</v>
+        <v>8.816336380713292</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.38255178057838</v>
+        <v>9.046061147998621</v>
       </c>
       <c r="C191">
-        <v>8.175665174094551</v>
+        <v>9.892302511530193</v>
       </c>
       <c r="D191">
-        <v>6.45671823699116</v>
+        <v>5.336530293675813</v>
       </c>
       <c r="E191">
-        <v>22.23219591894848</v>
+        <v>4.930264982058457</v>
       </c>
       <c r="F191">
-        <v>8.742433180261392</v>
+        <v>8.836780162679428</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12.39606704243655</v>
+        <v>9.087739261695178</v>
       </c>
       <c r="C192">
-        <v>8.194945895404302</v>
+        <v>9.895103503743764</v>
       </c>
       <c r="D192">
-        <v>6.478102454439827</v>
+        <v>5.356725951051138</v>
       </c>
       <c r="E192">
-        <v>22.25155728428159</v>
+        <v>4.95143198732741</v>
       </c>
       <c r="F192">
-        <v>8.767115751022944</v>
+        <v>8.856922844149045</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12.40941265441345</v>
+        <v>9.129295230401787</v>
       </c>
       <c r="C193">
-        <v>8.214048490471612</v>
+        <v>9.897835000626193</v>
       </c>
       <c r="D193">
-        <v>6.499272529642699</v>
+        <v>5.376735325968289</v>
       </c>
       <c r="E193">
-        <v>22.27061944419451</v>
+        <v>4.97244193984879</v>
       </c>
       <c r="F193">
-        <v>8.791643359393804</v>
+        <v>8.876766920630674</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.42259098991297</v>
+        <v>9.170729667913141</v>
       </c>
       <c r="C194">
-        <v>8.232974190387566</v>
+        <v>9.900498349212276</v>
       </c>
       <c r="D194">
-        <v>6.520230593826508</v>
+        <v>5.396560193253436</v>
       </c>
       <c r="E194">
-        <v>22.28938711520361</v>
+        <v>4.993295964963435</v>
       </c>
       <c r="F194">
-        <v>8.81601741568241</v>
+        <v>8.896314878186571</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.4356043898742</v>
+        <v>9.212043191697632</v>
       </c>
       <c r="C195">
-        <v>8.251724233772824</v>
+        <v>9.903094861384831</v>
       </c>
       <c r="D195">
-        <v>6.540978757682378</v>
+        <v>5.416202311237412</v>
       </c>
       <c r="E195">
-        <v>22.30786494230844</v>
+        <v>5.013995182351212</v>
       </c>
       <c r="F195">
-        <v>8.840239321544601</v>
+        <v>8.91556919503712</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12.44845516369104</v>
+        <v>9.253236424716679</v>
       </c>
       <c r="C196">
-        <v>8.270299840772331</v>
+        <v>9.905625824733905</v>
       </c>
       <c r="D196">
-        <v>6.561519111589255</v>
+        <v>5.435663421738689</v>
       </c>
       <c r="E196">
-        <v>22.32605750108098</v>
+        <v>5.034540705223887</v>
       </c>
       <c r="F196">
-        <v>8.864310470164112</v>
+        <v>8.934532342596002</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12.46114558835231</v>
+        <v>9.29430999593515</v>
       </c>
       <c r="C197">
-        <v>8.28870223292496</v>
+        <v>9.908092502782559</v>
       </c>
       <c r="D197">
-        <v>6.581853725639978</v>
+        <v>5.454945250358989</v>
       </c>
       <c r="E197">
-        <v>22.34396929475523</v>
+        <v>5.054933640396146</v>
       </c>
       <c r="F197">
-        <v>8.888232245522834</v>
+        <v>8.95320678119031</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.47367791112857</v>
+        <v>9.33526453625138</v>
       </c>
       <c r="C198">
-        <v>8.306932627548562</v>
+        <v>9.910496130249376</v>
       </c>
       <c r="D198">
-        <v>6.601984649767126</v>
+        <v>5.474049506471311</v>
       </c>
       <c r="E198">
-        <v>22.36160476099894</v>
+        <v>5.075175088743915</v>
       </c>
       <c r="F198">
-        <v>8.91200602173295</v>
+        <v>8.971594962445765</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.48605434878182</v>
+        <v>9.376100681125942</v>
       </c>
       <c r="C199">
-        <v>8.324992242831797</v>
+        <v>9.91283791596307</v>
       </c>
       <c r="D199">
-        <v>6.621913914021803</v>
+        <v>5.492977883413534</v>
       </c>
       <c r="E199">
-        <v>22.37896827230641</v>
+        <v>5.095266144158026</v>
       </c>
       <c r="F199">
-        <v>8.935633163800306</v>
+        <v>8.989699329457695</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.49827708793714</v>
+        <v>9.416819070234059</v>
       </c>
       <c r="C200">
-        <v>8.342882292975014</v>
+        <v>9.915119038390429</v>
       </c>
       <c r="D200">
-        <v>6.641643528723013</v>
+        <v>5.511732058608692</v>
       </c>
       <c r="E200">
-        <v>22.39606413412895</v>
+        <v>5.115207894422499</v>
       </c>
       <c r="F200">
-        <v>8.959115028560802</v>
+        <v>9.007522315158342</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.51034828409512</v>
+        <v>9.457420344327815</v>
       </c>
       <c r="C201">
-        <v>8.360603982162365</v>
+        <v>9.917340654572209</v>
       </c>
       <c r="D201">
-        <v>6.661175484500321</v>
+        <v>5.530313693658533</v>
       </c>
       <c r="E201">
-        <v>22.41289658702167</v>
+        <v>5.135001420656939</v>
       </c>
       <c r="F201">
-        <v>8.98245296210076</v>
+        <v>9.025066341856016</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.52227006380623</v>
+        <v>9.497905147853347</v>
       </c>
       <c r="C202">
-        <v>8.378158512828463</v>
+        <v>9.919503898683603</v>
       </c>
       <c r="D202">
-        <v>6.680511752557297</v>
+        <v>5.548724434535828</v>
       </c>
       <c r="E202">
-        <v>22.42946980351055</v>
+        <v>5.154647797267574</v>
       </c>
       <c r="F202">
-        <v>9.005648301411144</v>
+        <v>9.042333822078808</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.53404452617607</v>
+        <v>9.538274127714022</v>
       </c>
       <c r="C203">
-        <v>8.395547082705331</v>
+        <v>9.921609880017071</v>
       </c>
       <c r="D203">
-        <v>6.699654284850038</v>
+        <v>5.566965911624449</v>
       </c>
       <c r="E203">
-        <v>22.44578789493206</v>
+        <v>5.174148092305253</v>
       </c>
       <c r="F203">
-        <v>9.028702374313362</v>
+        <v>9.059327158901773</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.54567374116181</v>
+        <v>9.578527931561622</v>
       </c>
       <c r="C204">
-        <v>8.412770890534478</v>
+        <v>9.923659684920795</v>
       </c>
       <c r="D204">
-        <v>6.718605014152236</v>
+        <v>5.585039739881382</v>
       </c>
       <c r="E204">
-        <v>22.46185491214815</v>
+        <v>5.193503366886587</v>
       </c>
       <c r="F204">
-        <v>9.051616499467237</v>
+        <v>9.076048743163586</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.55715975070992</v>
+        <v>9.618667209710891</v>
       </c>
       <c r="C205">
-        <v>8.429831123733884</v>
+        <v>9.92565436769393</v>
       </c>
       <c r="D205">
-        <v>6.737365854282025</v>
+        <v>5.602947518955026</v>
       </c>
       <c r="E205">
-        <v>22.47767484320799</v>
+        <v>5.212714675605916</v>
       </c>
       <c r="F205">
-        <v>9.074391985202062</v>
+        <v>9.092500955112735</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.56850456917257</v>
+        <v>9.658692613438586</v>
       </c>
       <c r="C206">
-        <v>8.446728966894419</v>
+        <v>9.927594968101891</v>
       </c>
       <c r="D206">
-        <v>6.755938700273516</v>
+        <v>5.620690833474833</v>
       </c>
       <c r="E206">
-        <v>22.49325161559272</v>
+        <v>5.231783066318065</v>
       </c>
       <c r="F206">
-        <v>9.097030130473687</v>
+        <v>9.108686165191001</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.57971018370053</v>
+        <v>9.698604794578269</v>
       </c>
       <c r="C207">
-        <v>8.463465599675542</v>
+        <v>9.929482505126282</v>
       </c>
       <c r="D207">
-        <v>6.774325428493073</v>
+        <v>5.638271252854029</v>
       </c>
       <c r="E207">
-        <v>22.50858909290081</v>
+        <v>5.250709580073236</v>
       </c>
       <c r="F207">
-        <v>9.119532225384374</v>
+        <v>9.124606731304553</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.5907785444342</v>
+        <v>9.738404406730577</v>
       </c>
       <c r="C208">
-        <v>8.480042197426132</v>
+        <v>9.931317974693298</v>
       </c>
       <c r="D208">
-        <v>6.792527896824458</v>
+        <v>5.655690331630402</v>
       </c>
       <c r="E208">
-        <v>22.52369108166902</v>
+        <v>5.269495251351943</v>
       </c>
       <c r="F208">
-        <v>9.141899549756808</v>
+        <v>9.14026499989059</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.60171158901862</v>
+        <v>9.778092103273879</v>
       </c>
       <c r="C209">
-        <v>8.496459931332936</v>
+        <v>9.933102352098201</v>
       </c>
       <c r="D209">
-        <v>6.810547944830897</v>
+        <v>5.67294960954518</v>
       </c>
       <c r="E209">
-        <v>22.53856133245684</v>
+        <v>5.288141107712941</v>
       </c>
       <c r="F209">
-        <v>9.164133373782112</v>
+        <v>9.155663306264541</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.61251122356932</v>
+        <v>9.817668537882941</v>
       </c>
       <c r="C210">
-        <v>8.512719965041393</v>
+        <v>9.934836583776855</v>
       </c>
       <c r="D210">
-        <v>6.828387393911748</v>
+        <v>5.690050611873724</v>
       </c>
       <c r="E210">
-        <v>22.55320353703556</v>
+        <v>5.30664817008456</v>
       </c>
       <c r="F210">
-        <v>9.186234958350834</v>
+        <v>9.170803974318273</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.62317932839706</v>
+        <v>9.857134365221166</v>
       </c>
       <c r="C211">
-        <v>8.528823457611971</v>
+        <v>9.936521604145749</v>
       </c>
       <c r="D211">
-        <v>6.84604804746148</v>
+        <v>5.70699484913492</v>
       </c>
       <c r="E211">
-        <v>22.56762133072435</v>
+        <v>5.325017452649528</v>
       </c>
       <c r="F211">
-        <v>9.208205555545819</v>
+        <v>9.185689314940879</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.63371775840955</v>
+        <v>9.896490238934666</v>
       </c>
       <c r="C212">
-        <v>8.544771562485295</v>
+        <v>9.93815832767087</v>
       </c>
       <c r="D212">
-        <v>6.863531691027202</v>
+        <v>5.723783817515152</v>
       </c>
       <c r="E212">
-        <v>22.58181828907129</v>
+        <v>5.343249962785119</v>
       </c>
       <c r="F212">
-        <v>9.230046406321774</v>
+        <v>9.20032162717794</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.64412834351315</v>
+        <v>9.935736812658437</v>
       </c>
       <c r="C213">
-        <v>8.560565430040855</v>
+        <v>9.939747648555128</v>
       </c>
       <c r="D213">
-        <v>6.880840092462139</v>
+        <v>5.740418998923569</v>
       </c>
       <c r="E213">
-        <v>22.59579793439053</v>
+        <v>5.361346701387466</v>
       </c>
       <c r="F213">
-        <v>9.251758742338682</v>
+        <v>9.214703198989008</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.65441288265583</v>
+        <v>9.974874740252872</v>
       </c>
       <c r="C214">
-        <v>8.576206202831196</v>
+        <v>9.941290442462105</v>
       </c>
       <c r="D214">
-        <v>6.897975002109986</v>
+        <v>5.756901861178598</v>
       </c>
       <c r="E214">
-        <v>22.60956373723446</v>
+        <v>5.379308662342752</v>
       </c>
       <c r="F214">
-        <v>9.273343785416765</v>
+        <v>9.228836304541401</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.66457314736718</v>
+        <v>10.0139046741712</v>
       </c>
       <c r="C215">
-        <v>8.591695017484897</v>
+        <v>9.942787558832936</v>
       </c>
       <c r="D215">
-        <v>6.914938152941385</v>
+        <v>5.773233858010028</v>
       </c>
       <c r="E215">
-        <v>22.62311911324525</v>
+        <v>5.397136832828474</v>
       </c>
       <c r="F215">
-        <v>9.294802747489042</v>
+        <v>9.242723205792055</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.67461089814984</v>
+        <v>10.05282726647112</v>
       </c>
       <c r="C216">
-        <v>8.607033005153411</v>
+        <v>9.944239837402838</v>
       </c>
       <c r="D216">
-        <v>6.931731260677928</v>
+        <v>5.789416429276914</v>
       </c>
       <c r="E216">
-        <v>22.63646742552533</v>
+        <v>5.414832193434086</v>
       </c>
       <c r="F216">
-        <v>9.316136834565395</v>
+        <v>9.256366152686592</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.68452786527711</v>
+        <v>10.0916431687275</v>
       </c>
       <c r="C217">
-        <v>8.622221291604047</v>
+        <v>9.945648098911839</v>
       </c>
       <c r="D217">
-        <v>6.948356024032606</v>
+        <v>5.805451001063826</v>
       </c>
       <c r="E217">
-        <v>22.64961198074874</v>
+        <v>5.432395718436451</v>
       </c>
       <c r="F217">
-        <v>9.337347238857713</v>
+        <v>9.269767382248798</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.6943257554834</v>
+        <v>10.13035303091412</v>
       </c>
       <c r="C218">
-        <v>8.637260999230772</v>
+        <v>9.947013146237163</v>
       </c>
       <c r="D218">
-        <v>6.964814124812487</v>
+        <v>5.821338985712589</v>
       </c>
       <c r="E218">
-        <v>22.6625560361414</v>
+        <v>5.449828374752189</v>
       </c>
       <c r="F218">
-        <v>9.358435143231389</v>
+        <v>9.282929118154186</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.70400625233179</v>
+        <v>10.16895750224547</v>
       </c>
       <c r="C219">
-        <v>8.652153240672803</v>
+        <v>9.948335765600547</v>
       </c>
       <c r="D219">
-        <v>6.981107227977292</v>
+        <v>5.837081782155754</v>
       </c>
       <c r="E219">
-        <v>22.67530280148968</v>
+        <v>5.467131122780915</v>
       </c>
       <c r="F219">
-        <v>9.379401721200217</v>
+        <v>9.29585357144617</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.71357101658175</v>
+        <v>10.20745723083212</v>
       </c>
       <c r="C220">
-        <v>8.666899123898412</v>
+        <v>9.949616720222489</v>
       </c>
       <c r="D220">
-        <v>6.997236981999585</v>
+        <v>5.852680775889199</v>
       </c>
       <c r="E220">
-        <v>22.68785543505807</v>
+        <v>5.484304916671362</v>
       </c>
       <c r="F220">
-        <v>9.400248136405375</v>
+        <v>9.308542940870671</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.72302167291286</v>
+        <v>10.24585286306433</v>
       </c>
       <c r="C221">
-        <v>8.681499750722914</v>
+        <v>9.950856764708517</v>
       </c>
       <c r="D221">
-        <v>7.013205018922359</v>
+        <v>5.868137339116231</v>
       </c>
       <c r="E221">
-        <v>22.70021704620705</v>
+        <v>5.501350704154884</v>
       </c>
       <c r="F221">
-        <v>9.420975545050593</v>
+        <v>9.320999411043088</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.7323598390263</v>
+        <v>10.28414504425161</v>
       </c>
       <c r="C222">
-        <v>8.695956218454075</v>
+        <v>9.952056635972257</v>
       </c>
       <c r="D222">
-        <v>7.029012954518106</v>
+        <v>5.883452830724472</v>
       </c>
       <c r="E222">
-        <v>22.71239069220334</v>
+        <v>5.518269425683717</v>
       </c>
       <c r="F222">
-        <v>9.441585095682829</v>
+        <v>9.333225153623046</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.74158710821422</v>
+        <v>10.32233441809227</v>
       </c>
       <c r="C223">
-        <v>8.710269617723309</v>
+        <v>9.95321705528325</v>
       </c>
       <c r="D223">
-        <v>7.044662388458014</v>
+        <v>5.898628596751606</v>
       </c>
       <c r="E223">
-        <v>22.72437938398621</v>
+        <v>5.535062015368283</v>
       </c>
       <c r="F223">
-        <v>9.46207792151835</v>
+        <v>9.345222327811166</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.75070505002907</v>
+        <v>10.36042162645593</v>
       </c>
       <c r="C224">
-        <v>8.724441031848087</v>
+        <v>9.954338729024428</v>
       </c>
       <c r="D224">
-        <v>7.060154903991549</v>
+        <v>5.913665970251529</v>
       </c>
       <c r="E224">
-        <v>22.73618608838758</v>
+        <v>5.551729401255729</v>
       </c>
       <c r="F224">
-        <v>9.482455148619074</v>
+        <v>9.356993078829689</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.75971521252143</v>
+        <v>10.39840730989002</v>
       </c>
       <c r="C225">
-        <v>8.738471538526056</v>
+        <v>9.95542234222491</v>
       </c>
       <c r="D225">
-        <v>7.075492069070219</v>
+        <v>5.928566271456167</v>
       </c>
       <c r="E225">
-        <v>22.74781372444016</v>
+        <v>5.568272504720658</v>
       </c>
       <c r="F225">
-        <v>9.502717893404936</v>
+        <v>9.368539538477584</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.76861912257409</v>
+        <v>10.43629210690071</v>
       </c>
       <c r="C226">
-        <v>8.752362209215166</v>
+        <v>9.956468573649051</v>
       </c>
       <c r="D226">
-        <v>7.090675435869596</v>
+        <v>5.943330807765737</v>
       </c>
       <c r="E226">
-        <v>22.75926516575776</v>
+        <v>5.584692240409658</v>
       </c>
       <c r="F226">
-        <v>9.522867262649838</v>
+        <v>9.379863825465792</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.77741828363945</v>
+        <v>10.47407665409447</v>
       </c>
       <c r="C227">
-        <v>8.766114111012056</v>
+        <v>9.957478085293916</v>
       </c>
       <c r="D227">
-        <v>7.105706541042875</v>
+        <v>5.957960874197028</v>
       </c>
       <c r="E227">
-        <v>22.77054323740546</v>
+        <v>5.600989516658679</v>
       </c>
       <c r="F227">
-        <v>9.542904359294562</v>
+        <v>9.390968045362676</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.7861141721458</v>
+        <v>10.51176158653018</v>
       </c>
       <c r="C228">
-        <v>8.779728302303431</v>
+        <v>9.958451525392444</v>
       </c>
       <c r="D228">
-        <v>7.120586905905733</v>
+        <v>5.972457753253118</v>
       </c>
       <c r="E228">
-        <v>22.78165072129626</v>
+        <v>5.617165235676677</v>
       </c>
       <c r="F228">
-        <v>9.562830269840186</v>
+        <v>9.401854289571393</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.79470825671054</v>
+        <v>10.54934753691783</v>
       </c>
       <c r="C229">
-        <v>8.793205835972181</v>
+        <v>9.959389528725985</v>
       </c>
       <c r="D229">
-        <v>7.135318035768801</v>
+        <v>5.986822715074712</v>
       </c>
       <c r="E229">
-        <v>22.7925903587842</v>
+        <v>5.633220293069439</v>
       </c>
       <c r="F229">
-        <v>9.582646073598079</v>
+        <v>9.412524636134043</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.80320198041147</v>
+        <v>10.58683513602274</v>
       </c>
       <c r="C230">
-        <v>8.806547758506186</v>
+        <v>9.960292710601408</v>
       </c>
       <c r="D230">
-        <v>7.149901421826219</v>
+        <v>6.001057017444912</v>
       </c>
       <c r="E230">
-        <v>22.80336484670051</v>
+        <v>5.649155578117984</v>
       </c>
       <c r="F230">
-        <v>9.602352840720021</v>
+        <v>9.422981150305002</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.81159676644981</v>
+        <v>10.62422501276822</v>
       </c>
       <c r="C231">
-        <v>8.819755110572585</v>
+        <v>9.961161681517233</v>
       </c>
       <c r="D231">
-        <v>7.164338540063484</v>
+        <v>6.015161906218723</v>
       </c>
       <c r="E231">
-        <v>22.81397683974366</v>
+        <v>5.664971973822517</v>
       </c>
       <c r="F231">
-        <v>9.621951632030489</v>
+        <v>9.433225882874801</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.81989401845975</v>
+        <v>10.66151779364298</v>
       </c>
       <c r="C232">
-        <v>8.832828926761403</v>
+        <v>9.961997036507213</v>
       </c>
       <c r="D232">
-        <v>7.178630851680284</v>
+        <v>6.029138615196967</v>
       </c>
       <c r="E232">
-        <v>22.82442894722266</v>
+        <v>5.680670357012152</v>
       </c>
       <c r="F232">
-        <v>9.641443500404666</v>
+        <v>9.44326087123425</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.82809512081794</v>
+        <v>10.6987141030636</v>
       </c>
       <c r="C233">
-        <v>8.845770234204307</v>
+        <v>9.962799358367301</v>
       </c>
       <c r="D233">
-        <v>7.192779803263181</v>
+        <v>6.042988366264486</v>
       </c>
       <c r="E233">
-        <v>22.8347237382982</v>
+        <v>5.69625159815548</v>
       </c>
       <c r="F233">
-        <v>9.66082948966168</v>
+        <v>9.453088139914456</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.83620143256533</v>
+        <v>10.73581456337064</v>
       </c>
       <c r="C234">
-        <v>8.858580054019571</v>
+        <v>9.963569217618085</v>
       </c>
       <c r="D234">
-        <v>7.206786825927323</v>
+        <v>6.056712369405934</v>
       </c>
       <c r="E234">
-        <v>22.84486374505562</v>
+        <v>5.711716561545821</v>
       </c>
       <c r="F234">
-        <v>9.680110632670246</v>
+        <v>9.46270969957728</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.84421429868069</v>
+        <v>10.77281979442249</v>
       </c>
       <c r="C235">
-        <v>8.871259400830148</v>
+        <v>9.964307167460149</v>
       </c>
       <c r="D235">
-        <v>7.220653337659959</v>
+        <v>6.070311823129281</v>
       </c>
       <c r="E235">
-        <v>22.8548514580279</v>
+        <v>5.727066105311411</v>
       </c>
       <c r="F235">
-        <v>9.699287954103088</v>
+        <v>9.472127546562181</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.85213504796563</v>
+        <v>10.80973041398947</v>
       </c>
       <c r="C236">
-        <v>8.883809284038854</v>
+        <v>9.965013756897886</v>
       </c>
       <c r="D236">
-        <v>7.234380741798691</v>
+        <v>6.083787914332911</v>
       </c>
       <c r="E236">
-        <v>22.86468932867737</v>
+        <v>5.742301081524933</v>
       </c>
       <c r="F236">
-        <v>9.718362469575967</v>
+        <v>9.481343663685388</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.85996498868013</v>
+        <v>10.84654703758973</v>
       </c>
       <c r="C237">
-        <v>8.896230705316325</v>
+        <v>9.965689520998735</v>
       </c>
       <c r="D237">
-        <v>7.247970427614388</v>
+        <v>6.097141818425008</v>
       </c>
       <c r="E237">
-        <v>22.8743797662337</v>
+        <v>5.757422336035058</v>
       </c>
       <c r="F237">
-        <v>9.737335185746693</v>
+        <v>9.490360019900606</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.86770541105111</v>
+        <v>10.88327027807325</v>
       </c>
       <c r="C238">
-        <v>8.908524660052436</v>
+        <v>9.96633498386165</v>
       </c>
       <c r="D238">
-        <v>7.261423770430055</v>
+        <v>6.110374699342163</v>
       </c>
       <c r="E238">
-        <v>22.88392514251623</v>
+        <v>5.772430708650672</v>
       </c>
       <c r="F238">
-        <v>9.756207101636599</v>
+        <v>9.499178572070043</v>
       </c>
     </row>
   </sheetData>
